--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-oauth.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-oauth.xlsx
@@ -1,35 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repo-hand\repo-hzero\hzero-resource\init-data\saas\hzero-platform\hzero_platform\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\WorkDev\hzero-generator\src\main\resources\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D736BB37-C594-4782-BE0A-39CF24CA3C44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="14220" tabRatio="597"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
-    <sheet name="客户端" sheetId="2" r:id="rId2"/>
-    <sheet name="LDAP" sheetId="3" r:id="rId3"/>
-    <sheet name="安全策略" sheetId="4" r:id="rId4"/>
+    <sheet name="客户端" r:id="rId5" sheetId="2"/>
+    <sheet name="LDAP" r:id="rId6" sheetId="3"/>
+    <sheet name="安全策略" r:id="rId7" sheetId="4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
-    <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
-    <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
+    <definedName name="qwe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
+    <definedName name="wqewqe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="150">
   <si>
     <r>
       <rPr>
@@ -1998,7 +1997,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-03-12</t>
+    <t>2020-05-29</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2067,21 +2066,42 @@
     <t>86400</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
     <t>localhost</t>
   </si>
   <si>
+    <t>{}</t>
+  </si>
+  <si>
     <t>hzero-front-uat</t>
   </si>
   <si>
     <t>hzero-front-dev</t>
   </si>
   <si>
+    <t>c2VjcmV0</t>
+  </si>
+  <si>
+    <t>360000</t>
+  </si>
+  <si>
+    <t>hzero-front-lowcode</t>
+  </si>
+  <si>
+    <t>CLCMS</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>client_credentials</t>
+  </si>
+  <si>
+    <t>3600</t>
+  </si>
+  <si>
     <t>LDAP</t>
   </si>
   <si>
@@ -2157,9 +2177,6 @@
     <t>cn=admin,dc=my-company,dc=com</t>
   </si>
   <si>
-    <t>123456</t>
-  </si>
-  <si>
     <t>ou=内部,dc=my-company,dc=com</t>
   </si>
   <si>
@@ -2169,10 +2186,10 @@
     <t>inetOrgPerson</t>
   </si>
   <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>10</t>
+    <t>502</t>
+  </si>
+  <si>
+    <t>11</t>
   </si>
   <si>
     <t>entryUUID</t>
@@ -2283,7 +2300,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="48">
     <font>
       <sz val="12"/>
@@ -2403,184 +2421,154 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="42"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="42"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="42"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2773,36 +2761,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2818,10 +2776,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
@@ -3161,36 +3149,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.109375" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="38.5546875" customWidth="1"/>
-    <col min="6" max="6" width="23.44140625" customWidth="1"/>
-    <col min="7" max="7" width="21.5546875" customWidth="1"/>
-    <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5546875" customWidth="1"/>
-    <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.109375" customWidth="1"/>
-    <col min="12" max="12" width="18.5546875" customWidth="1"/>
-    <col min="13" max="13" width="13.109375" customWidth="1"/>
-    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="15.5546875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="2" width="10.33203125" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="28.109375" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="3" width="35.33203125" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="38.5546875" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="23.44140625" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="21.5546875" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="22.0" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="24.5546875" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="27.0" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="19.109375" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="18.5546875" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="13.109375" collapsed="false"/>
+    <col min="14" max="1025" customWidth="true" width="10.33203125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -3199,21 +3187,21 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="59" t="s">
+      <c r="D3" s="27"/>
+      <c r="E3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
     </row>
     <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="60"/>
+      <c r="D4" s="30"/>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
@@ -3324,11 +3312,11 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="61" t="s">
+      <c r="C19" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
     </row>
     <row r="20" spans="3:5" ht="18">
       <c r="C20" s="24" t="s">
@@ -3366,19 +3354,19 @@
       <c r="C25" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="57" t="s">
+      <c r="D25" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="57"/>
+      <c r="E25" s="27"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="57" t="s">
+      <c r="D26" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="57"/>
+      <c r="E26" s="27"/>
     </row>
     <row r="27" spans="3:5" ht="51.75">
       <c r="C27" s="26" t="s">
@@ -3402,45 +3390,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
-  <cols>
-    <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="64.44140625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="27" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="32">
         <v>44</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" t="s" s="33">
         <v>45</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" t="s" s="34">
         <v>9</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" t="s" s="35">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
-      <c r="E4" s="31" t="s">
+    <row r="4">
+      <c r="E4" t="s" s="36">
         <v>47</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" t="s" s="37">
         <v>48</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" t="s" s="38">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -3450,13 +3432,13 @@
       <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="D7" t="s" s="53">
         <v>53</v>
       </c>
-      <c r="E7" s="49" t="s">
+      <c r="E7" t="s" s="54">
         <v>54</v>
       </c>
-      <c r="F7" s="50" t="s">
+      <c r="F7" t="s" s="55">
         <v>55</v>
       </c>
       <c r="G7" t="s">
@@ -3493,7 +3475,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8">
       <c r="E8" t="s">
         <v>67</v>
       </c>
@@ -3518,19 +3500,22 @@
       <c r="M8" t="s">
         <v>72</v>
       </c>
+      <c r="N8" t="s">
+        <v>72</v>
+      </c>
       <c r="P8" t="s">
         <v>70</v>
       </c>
       <c r="Q8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9">
       <c r="E9" t="s">
         <v>67</v>
       </c>
       <c r="F9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G9" t="s">
         <v>69</v>
@@ -3550,14 +3535,17 @@
       <c r="M9" t="s">
         <v>72</v>
       </c>
+      <c r="O9" t="s">
+        <v>75</v>
+      </c>
       <c r="P9" t="s">
         <v>70</v>
       </c>
       <c r="Q9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10">
       <c r="E10" t="s">
         <v>67</v>
       </c>
@@ -3586,10 +3574,10 @@
         <v>70</v>
       </c>
       <c r="Q10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11">
       <c r="E11" t="s">
         <v>67</v>
       </c>
@@ -3603,7 +3591,7 @@
         <v>70</v>
       </c>
       <c r="I11" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="J11" t="s">
         <v>70</v>
@@ -3614,53 +3602,125 @@
       <c r="M11" t="s">
         <v>72</v>
       </c>
+      <c r="N11" t="s">
+        <v>79</v>
+      </c>
       <c r="P11" t="s">
         <v>70</v>
       </c>
       <c r="Q11" t="s">
-        <v>74</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="E12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12" t="s">
+        <v>58</v>
+      </c>
+      <c r="J12" t="s">
+        <v>70</v>
+      </c>
+      <c r="K12" t="s">
+        <v>71</v>
+      </c>
+      <c r="M12" t="s">
+        <v>72</v>
+      </c>
+      <c r="N12" t="s">
+        <v>72</v>
+      </c>
+      <c r="P12" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="E13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" t="s">
+        <v>70</v>
+      </c>
+      <c r="I13" t="s">
+        <v>82</v>
+      </c>
+      <c r="J13" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" t="s">
+        <v>83</v>
+      </c>
+      <c r="M13" t="s">
+        <v>84</v>
+      </c>
+      <c r="N13" t="s">
+        <v>84</v>
+      </c>
+      <c r="P13" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:X8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:24">
-      <c r="A1" s="34" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="39">
         <v>44</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" t="s" s="40">
         <v>45</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" t="s" s="41">
         <v>9</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" t="s" s="42">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
-      <c r="E4" s="38" t="s">
+    <row r="4">
+      <c r="E4" t="s" s="43">
         <v>47</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" t="s" s="44">
         <v>48</v>
       </c>
-      <c r="G4" s="40" t="s">
+      <c r="G4" t="s" s="45">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -3668,174 +3728,167 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="E7" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" t="s" s="56">
+        <v>86</v>
+      </c>
+      <c r="E7" t="s" s="57">
         <v>54</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G7" s="53" t="s">
-        <v>81</v>
+        <v>87</v>
+      </c>
+      <c r="G7" t="s" s="58">
+        <v>88</v>
       </c>
       <c r="H7" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="I7" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="J7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="K7" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="L7" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="M7" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="N7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="O7" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="P7" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="Q7" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="R7" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="S7" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="T7" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="U7" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="V7" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="W7" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="X7" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8">
       <c r="E8" t="s">
         <v>67</v>
       </c>
       <c r="F8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="G8" t="s">
         <v>69</v>
       </c>
       <c r="H8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="I8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="K8" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="L8" t="s">
         <v>69</v>
       </c>
       <c r="M8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N8" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="O8" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="P8" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="R8" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="S8" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="T8" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="U8" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="V8" t="s">
-        <v>111</v>
-      </c>
-      <c r="W8" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="X8" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:AD8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:30">
-      <c r="A1" s="41" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="46">
         <v>44</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" t="s" s="47">
         <v>45</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" t="s" s="48">
         <v>9</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" t="s" s="49">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
-      <c r="E4" s="45" t="s">
+    <row r="4">
+      <c r="E4" t="s" s="50">
         <v>47</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="F4" t="s" s="51">
         <v>48</v>
       </c>
-      <c r="G4" s="47" t="s">
+      <c r="G4" t="s" s="52">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -3843,117 +3896,117 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D7" s="54" t="s">
-        <v>114</v>
-      </c>
-      <c r="E7" s="55" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" t="s" s="59">
+        <v>120</v>
+      </c>
+      <c r="E7" t="s" s="60">
         <v>54</v>
       </c>
       <c r="F7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H7" s="56" t="s">
-        <v>81</v>
+        <v>87</v>
+      </c>
+      <c r="H7" t="s" s="61">
+        <v>88</v>
       </c>
       <c r="I7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="J7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="K7" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="L7" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="M7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="N7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="O7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="P7" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="Q7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="R7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="S7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="T7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="U7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="V7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="W7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="X7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="Y7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="Z7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="AA7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AB7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AC7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="AD7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8">
       <c r="E8" t="s">
         <v>67</v>
       </c>
       <c r="F8" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="G8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="H8" t="s">
         <v>69</v>
       </c>
       <c r="I8" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="J8" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="K8" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="L8" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="M8" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="N8" t="s">
         <v>69</v>
@@ -3971,28 +4024,28 @@
         <v>69</v>
       </c>
       <c r="T8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W8" t="s">
         <v>72</v>
       </c>
       <c r="X8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y8" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="Z8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB8" t="s">
         <v>69</v>
@@ -4005,8 +4058,6 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-oauth.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-oauth.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\WorkDev\hzero-generator\src\main\resources\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\c7n-hzero\hzero-platform\src\main\resources\script\db\init-data\hzero_platform\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F8026E-ED55-4E11-986A-91B5F76D3E57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="14220" tabRatio="597"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="597" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
-    <sheet name="客户端" r:id="rId5" sheetId="2"/>
-    <sheet name="LDAP" r:id="rId6" sheetId="3"/>
-    <sheet name="安全策略" r:id="rId7" sheetId="4"/>
+    <sheet name="客户端" sheetId="2" r:id="rId2"/>
+    <sheet name="LDAP" sheetId="3" r:id="rId3"/>
+    <sheet name="安全策略" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
-    <definedName name="qwe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
-    <definedName name="wqewqe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -2279,9 +2280,6 @@
     <t>force_modify_password</t>
   </si>
   <si>
-    <t>HZERO</t>
-  </si>
-  <si>
     <t>admin1234</t>
   </si>
   <si>
@@ -2295,13 +2293,16 @@
   </si>
   <si>
     <t>3</t>
+  </si>
+  <si>
+    <t>HZERO-PLATFORM</t>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="48">
     <font>
       <sz val="12"/>
@@ -2421,154 +2422,184 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="53"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="48"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="42"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="53"/>
-    </font>
-    <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="42"/>
-    </font>
-    <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="53"/>
-    </font>
-    <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="42"/>
-    </font>
-    <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="53"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="53"/>
-    </font>
-    <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="53"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2709,7 +2740,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2761,6 +2792,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2776,40 +2837,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
@@ -3149,59 +3181,59 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="15.5546875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="2" width="10.33203125" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="28.109375" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="3" width="35.33203125" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="38.5546875" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="23.44140625" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="21.5546875" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="22.0" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="24.5546875" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="27.0" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="19.109375" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="18.5546875" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" width="13.109375" collapsed="false"/>
-    <col min="14" max="1025" customWidth="true" width="10.33203125" collapsed="false"/>
+    <col min="1" max="1" width="15.58203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.08203125" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="38.58203125" customWidth="1"/>
+    <col min="6" max="6" width="23.4140625" customWidth="1"/>
+    <col min="7" max="7" width="21.58203125" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+    <col min="9" max="9" width="24.58203125" customWidth="1"/>
+    <col min="10" max="10" width="27" customWidth="1"/>
+    <col min="11" max="11" width="19.08203125" customWidth="1"/>
+    <col min="12" max="12" width="18.58203125" customWidth="1"/>
+    <col min="13" max="13" width="13.08203125" customWidth="1"/>
+    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:8" ht="18">
+    <row r="2" spans="1:8">
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="29" t="s">
+      <c r="D3" s="57"/>
+      <c r="E3" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
     </row>
-    <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="30" t="s">
+    <row r="4" spans="1:8">
+      <c r="C4" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="30"/>
+      <c r="D4" s="60"/>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
@@ -3218,7 +3250,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18">
+    <row r="7" spans="1:8">
       <c r="C7" s="10" t="s">
         <v>8</v>
       </c>
@@ -3238,7 +3270,7 @@
       </c>
       <c r="E8" s="15"/>
     </row>
-    <row r="9" spans="1:8" ht="51.75">
+    <row r="9" spans="1:8" ht="52.2">
       <c r="C9" s="16" t="s">
         <v>13</v>
       </c>
@@ -3252,7 +3284,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="51.75">
+    <row r="10" spans="1:8" ht="52.2">
       <c r="C10" s="19" t="s">
         <v>17</v>
       </c>
@@ -3263,7 +3295,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="69">
+    <row r="11" spans="1:8" ht="69.599999999999994">
       <c r="C11" s="13" t="s">
         <v>20</v>
       </c>
@@ -3295,7 +3327,7 @@
       <c r="D14" s="14"/>
       <c r="E14" s="15"/>
     </row>
-    <row r="15" spans="1:8" ht="34.5">
+    <row r="15" spans="1:8" ht="34.799999999999997">
       <c r="C15" s="21" t="s">
         <v>26</v>
       </c>
@@ -3312,13 +3344,13 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
     </row>
-    <row r="20" spans="3:5" ht="18">
+    <row r="20" spans="3:5">
       <c r="C20" s="24" t="s">
         <v>31</v>
       </c>
@@ -3326,7 +3358,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5" ht="18">
+    <row r="21" spans="3:5">
       <c r="C21" s="24" t="s">
         <v>33</v>
       </c>
@@ -3334,7 +3366,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:5" ht="18">
+    <row r="22" spans="3:5">
       <c r="C22" s="24" t="s">
         <v>35</v>
       </c>
@@ -3342,7 +3374,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:5" ht="18">
+    <row r="23" spans="3:5">
       <c r="C23" s="24" t="s">
         <v>37</v>
       </c>
@@ -3354,21 +3386,21 @@
       <c r="C25" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="27"/>
+      <c r="E25" s="57"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="27"/>
+      <c r="E26" s="57"/>
     </row>
-    <row r="27" spans="3:5" ht="51.75">
+    <row r="27" spans="3:5" ht="52.2">
       <c r="C27" s="26" t="s">
         <v>43</v>
       </c>
@@ -3390,39 +3422,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="32">
+    <row r="1" spans="1:17">
+      <c r="A1" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="33">
+      <c r="B1" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="34">
+      <c r="C1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="35">
+      <c r="D1" s="30" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="s" s="36">
+    <row r="4" spans="1:17">
+      <c r="E4" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="37">
+      <c r="F4" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="38">
+      <c r="G4" s="33" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -3432,13 +3464,13 @@
       <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" t="s" s="53">
+      <c r="D7" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="E7" t="s" s="54">
+      <c r="E7" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="F7" t="s" s="55">
+      <c r="F7" s="50" t="s">
         <v>55</v>
       </c>
       <c r="G7" t="s">
@@ -3475,7 +3507,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:17">
       <c r="E8" t="s">
         <v>67</v>
       </c>
@@ -3510,7 +3542,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:17">
       <c r="E9" t="s">
         <v>67</v>
       </c>
@@ -3545,7 +3577,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:17">
       <c r="E10" t="s">
         <v>67</v>
       </c>
@@ -3577,7 +3609,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:17">
       <c r="E11" t="s">
         <v>67</v>
       </c>
@@ -3612,7 +3644,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:17">
       <c r="E12" t="s">
         <v>67</v>
       </c>
@@ -3647,7 +3679,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:17">
       <c r="E13" t="s">
         <v>67</v>
       </c>
@@ -3683,44 +3715,45 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="39">
+    <row r="1" spans="1:24">
+      <c r="A1" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="40">
+      <c r="B1" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="41">
+      <c r="C1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="42">
+      <c r="D1" s="37" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="s" s="43">
+    <row r="4" spans="1:24">
+      <c r="E4" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="44">
+      <c r="F4" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="45">
+      <c r="G4" s="40" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:24">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -3730,16 +3763,16 @@
       <c r="C7" t="s">
         <v>85</v>
       </c>
-      <c r="D7" t="s" s="56">
+      <c r="D7" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="E7" t="s" s="57">
+      <c r="E7" s="52" t="s">
         <v>54</v>
       </c>
       <c r="F7" t="s">
         <v>87</v>
       </c>
-      <c r="G7" t="s" s="58">
+      <c r="G7" s="53" t="s">
         <v>88</v>
       </c>
       <c r="H7" t="s">
@@ -3794,7 +3827,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:24">
       <c r="E8" t="s">
         <v>67</v>
       </c>
@@ -3851,44 +3884,50 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AD8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="6" max="6" width="28.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="46">
+    <row r="1" spans="1:30">
+      <c r="A1" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="47">
+      <c r="B1" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="48">
+      <c r="C1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="49">
+      <c r="D1" s="44" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="s" s="50">
+    <row r="4" spans="1:30">
+      <c r="E4" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="51">
+      <c r="F4" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="52">
+      <c r="G4" s="47" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:30">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -3898,10 +3937,10 @@
       <c r="C7" t="s">
         <v>119</v>
       </c>
-      <c r="D7" t="s" s="59">
+      <c r="D7" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="E7" t="s" s="60">
+      <c r="E7" s="55" t="s">
         <v>54</v>
       </c>
       <c r="F7" t="s">
@@ -3910,7 +3949,7 @@
       <c r="G7" t="s">
         <v>87</v>
       </c>
-      <c r="H7" t="s" s="61">
+      <c r="H7" s="56" t="s">
         <v>88</v>
       </c>
       <c r="I7" t="s">
@@ -3980,12 +4019,12 @@
         <v>143</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:30">
       <c r="E8" t="s">
         <v>67</v>
       </c>
-      <c r="F8" t="s">
-        <v>144</v>
+      <c r="F8" s="62" t="s">
+        <v>149</v>
       </c>
       <c r="G8" t="s">
         <v>106</v>
@@ -3994,16 +4033,16 @@
         <v>69</v>
       </c>
       <c r="I8" t="s">
+        <v>144</v>
+      </c>
+      <c r="J8" t="s">
         <v>145</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>146</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>147</v>
-      </c>
-      <c r="L8" t="s">
-        <v>148</v>
       </c>
       <c r="M8" t="s">
         <v>73</v>
@@ -4039,7 +4078,7 @@
         <v>73</v>
       </c>
       <c r="Y8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Z8" t="s">
         <v>73</v>
@@ -4058,6 +4097,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-oauth.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-oauth.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\c7n-hzero\hzero-platform\src\main\resources\script\db\init-data\hzero_platform\hzero_platform\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\WorkDev\hzero-resource\init-data\hzero-platform\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F8026E-ED55-4E11-986A-91B5F76D3E57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="597" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="14220" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="148">
   <si>
     <r>
       <rPr>
@@ -1998,7 +1997,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-05-29</t>
+    <t>2020-07-06</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2049,6 +2048,15 @@
     <t>enabled_flag</t>
   </si>
   <si>
+    <t>access_roles</t>
+  </si>
+  <si>
+    <t>pwd_replay_flag</t>
+  </si>
+  <si>
+    <t>time_zone</t>
+  </si>
+  <si>
     <t>*</t>
   </si>
   <si>
@@ -2070,12 +2078,12 @@
     <t>1</t>
   </si>
   <si>
+    <t>GMT+8</t>
+  </si>
+  <si>
     <t>localhost</t>
   </si>
   <si>
-    <t>{}</t>
-  </si>
-  <si>
     <t>hzero-front-uat</t>
   </si>
   <si>
@@ -2088,21 +2096,6 @@
     <t>360000</t>
   </si>
   <si>
-    <t>hzero-front-lowcode</t>
-  </si>
-  <si>
-    <t>CLCMS</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>client_credentials</t>
-  </si>
-  <si>
-    <t>3600</t>
-  </si>
-  <si>
     <t>LDAP</t>
   </si>
   <si>
@@ -2169,40 +2162,40 @@
     <t>HZERO平台</t>
   </si>
   <si>
-    <t>ldap://192.168.119.19</t>
+    <t>ldap://ac.hand-china.com</t>
   </si>
   <si>
     <t>389</t>
   </si>
   <si>
-    <t>cn=admin,dc=my-company,dc=com</t>
-  </si>
-  <si>
-    <t>ou=内部,dc=my-company,dc=com</t>
+    <t>VC112</t>
+  </si>
+  <si>
+    <t>Hand2019Ldap</t>
+  </si>
+  <si>
+    <t>ou=employee,dc=hand-china,dc=com</t>
   </si>
   <si>
     <t>OpenLDAP</t>
   </si>
   <si>
-    <t>inetOrgPerson</t>
-  </si>
-  <si>
-    <t>502</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>entryUUID</t>
+    <t>person</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>100</t>
   </si>
   <si>
     <t>uid</t>
   </si>
   <si>
-    <t>cn</t>
-  </si>
-  <si>
-    <t>telephoneNumber</t>
+    <t>sn</t>
+  </si>
+  <si>
+    <t>mail</t>
   </si>
   <si>
     <t>安全策略</t>
@@ -2280,6 +2273,9 @@
     <t>force_modify_password</t>
   </si>
   <si>
+    <t>HZERO</t>
+  </si>
+  <si>
     <t>admin1234</t>
   </si>
   <si>
@@ -2293,16 +2289,12 @@
   </si>
   <si>
     <t>3</t>
-  </si>
-  <si>
-    <t>HZERO-PLATFORM</t>
-    <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="48">
     <font>
       <sz val="12"/>
@@ -2740,7 +2732,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2837,11 +2829,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
@@ -3181,26 +3172,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="15.58203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.08203125" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" customWidth="1"/>
     <col min="4" max="4" width="35.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="38.58203125" customWidth="1"/>
-    <col min="6" max="6" width="23.4140625" customWidth="1"/>
-    <col min="7" max="7" width="21.58203125" customWidth="1"/>
+    <col min="5" max="5" width="38.5546875" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" customWidth="1"/>
+    <col min="7" max="7" width="21.5546875" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.58203125" customWidth="1"/>
+    <col min="9" max="9" width="24.5546875" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.08203125" customWidth="1"/>
-    <col min="12" max="12" width="18.58203125" customWidth="1"/>
-    <col min="13" max="13" width="13.08203125" customWidth="1"/>
+    <col min="11" max="11" width="19.109375" customWidth="1"/>
+    <col min="12" max="12" width="18.5546875" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" customWidth="1"/>
     <col min="14" max="1025" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3215,7 +3206,7 @@
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="18">
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
@@ -3229,7 +3220,7 @@
       <c r="F3" s="59"/>
       <c r="G3" s="59"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" ht="18">
       <c r="C4" s="60" t="s">
         <v>3</v>
       </c>
@@ -3250,7 +3241,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" ht="18">
       <c r="C7" s="10" t="s">
         <v>8</v>
       </c>
@@ -3270,7 +3261,7 @@
       </c>
       <c r="E8" s="15"/>
     </row>
-    <row r="9" spans="1:8" ht="52.2">
+    <row r="9" spans="1:8" ht="51.75">
       <c r="C9" s="16" t="s">
         <v>13</v>
       </c>
@@ -3284,7 +3275,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="52.2">
+    <row r="10" spans="1:8" ht="51.75">
       <c r="C10" s="19" t="s">
         <v>17</v>
       </c>
@@ -3295,7 +3286,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="69.599999999999994">
+    <row r="11" spans="1:8" ht="69">
       <c r="C11" s="13" t="s">
         <v>20</v>
       </c>
@@ -3327,7 +3318,7 @@
       <c r="D14" s="14"/>
       <c r="E14" s="15"/>
     </row>
-    <row r="15" spans="1:8" ht="34.799999999999997">
+    <row r="15" spans="1:8" ht="34.5">
       <c r="C15" s="21" t="s">
         <v>26</v>
       </c>
@@ -3350,7 +3341,7 @@
       <c r="D19" s="61"/>
       <c r="E19" s="61"/>
     </row>
-    <row r="20" spans="3:5">
+    <row r="20" spans="3:5" ht="18">
       <c r="C20" s="24" t="s">
         <v>31</v>
       </c>
@@ -3358,7 +3349,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5">
+    <row r="21" spans="3:5" ht="18">
       <c r="C21" s="24" t="s">
         <v>33</v>
       </c>
@@ -3366,7 +3357,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:5">
+    <row r="22" spans="3:5" ht="18">
       <c r="C22" s="24" t="s">
         <v>35</v>
       </c>
@@ -3374,7 +3365,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:5">
+    <row r="23" spans="3:5" ht="18">
       <c r="C23" s="24" t="s">
         <v>37</v>
       </c>
@@ -3400,7 +3391,7 @@
       </c>
       <c r="E26" s="57"/>
     </row>
-    <row r="27" spans="3:5" ht="52.2">
+    <row r="27" spans="3:5" ht="51.75">
       <c r="C27" s="26" t="s">
         <v>43</v>
       </c>
@@ -3422,14 +3413,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17.25"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:20">
       <c r="A1" s="27" t="s">
         <v>44</v>
       </c>
@@ -3443,7 +3436,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:20">
       <c r="E4" s="31" t="s">
         <v>47</v>
       </c>
@@ -3454,7 +3447,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:20">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -3506,212 +3499,175 @@
       <c r="Q7" t="s">
         <v>66</v>
       </c>
+      <c r="R7" t="s">
+        <v>67</v>
+      </c>
+      <c r="S7" t="s">
+        <v>68</v>
+      </c>
+      <c r="T7" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:20">
       <c r="E8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F8" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H8" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I8" t="s">
         <v>58</v>
       </c>
       <c r="J8" t="s">
+        <v>73</v>
+      </c>
+      <c r="K8" t="s">
+        <v>74</v>
+      </c>
+      <c r="M8" t="s">
+        <v>75</v>
+      </c>
+      <c r="N8" t="s">
+        <v>75</v>
+      </c>
+      <c r="P8" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>76</v>
+      </c>
+      <c r="S8" t="s">
+        <v>76</v>
+      </c>
+      <c r="T8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="E9" t="s">
         <v>70</v>
       </c>
-      <c r="K8" t="s">
-        <v>71</v>
-      </c>
-      <c r="M8" t="s">
+      <c r="F9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" t="s">
         <v>72</v>
       </c>
-      <c r="N8" t="s">
-        <v>72</v>
-      </c>
-      <c r="P8" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q8" t="s">
+      <c r="H9" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="E9" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9" t="s">
-        <v>74</v>
-      </c>
-      <c r="G9" t="s">
-        <v>69</v>
-      </c>
-      <c r="H9" t="s">
-        <v>70</v>
       </c>
       <c r="I9" t="s">
         <v>58</v>
       </c>
       <c r="J9" t="s">
+        <v>73</v>
+      </c>
+      <c r="K9" t="s">
+        <v>74</v>
+      </c>
+      <c r="M9" t="s">
+        <v>75</v>
+      </c>
+      <c r="P9" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>76</v>
+      </c>
+      <c r="S9" t="s">
+        <v>72</v>
+      </c>
+      <c r="T9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="E10" t="s">
         <v>70</v>
       </c>
-      <c r="K9" t="s">
-        <v>71</v>
-      </c>
-      <c r="M9" t="s">
+      <c r="F10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" t="s">
         <v>72</v>
       </c>
-      <c r="O9" t="s">
-        <v>75</v>
-      </c>
-      <c r="P9" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q9" t="s">
+      <c r="H10" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="E10" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" t="s">
-        <v>76</v>
-      </c>
-      <c r="G10" t="s">
-        <v>69</v>
-      </c>
-      <c r="H10" t="s">
-        <v>70</v>
       </c>
       <c r="I10" t="s">
         <v>58</v>
       </c>
       <c r="J10" t="s">
+        <v>73</v>
+      </c>
+      <c r="K10" t="s">
+        <v>74</v>
+      </c>
+      <c r="M10" t="s">
+        <v>75</v>
+      </c>
+      <c r="N10" t="s">
+        <v>75</v>
+      </c>
+      <c r="P10" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>76</v>
+      </c>
+      <c r="S10" t="s">
+        <v>76</v>
+      </c>
+      <c r="T10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="E11" t="s">
         <v>70</v>
       </c>
-      <c r="K10" t="s">
-        <v>71</v>
-      </c>
-      <c r="M10" t="s">
+      <c r="F11" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" t="s">
         <v>72</v>
       </c>
-      <c r="P10" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q10" t="s">
+      <c r="H11" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="E11" t="s">
-        <v>67</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="I11" t="s">
+        <v>81</v>
+      </c>
+      <c r="J11" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" t="s">
+        <v>74</v>
+      </c>
+      <c r="M11" t="s">
+        <v>75</v>
+      </c>
+      <c r="N11" t="s">
+        <v>82</v>
+      </c>
+      <c r="P11" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>76</v>
+      </c>
+      <c r="S11" t="s">
+        <v>72</v>
+      </c>
+      <c r="T11" t="s">
         <v>77</v>
-      </c>
-      <c r="G11" t="s">
-        <v>69</v>
-      </c>
-      <c r="H11" t="s">
-        <v>70</v>
-      </c>
-      <c r="I11" t="s">
-        <v>78</v>
-      </c>
-      <c r="J11" t="s">
-        <v>70</v>
-      </c>
-      <c r="K11" t="s">
-        <v>71</v>
-      </c>
-      <c r="M11" t="s">
-        <v>72</v>
-      </c>
-      <c r="N11" t="s">
-        <v>79</v>
-      </c>
-      <c r="P11" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="E12" t="s">
-        <v>67</v>
-      </c>
-      <c r="F12" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12" t="s">
-        <v>69</v>
-      </c>
-      <c r="H12" t="s">
-        <v>70</v>
-      </c>
-      <c r="I12" t="s">
-        <v>58</v>
-      </c>
-      <c r="J12" t="s">
-        <v>70</v>
-      </c>
-      <c r="K12" t="s">
-        <v>71</v>
-      </c>
-      <c r="M12" t="s">
-        <v>72</v>
-      </c>
-      <c r="N12" t="s">
-        <v>72</v>
-      </c>
-      <c r="P12" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="E13" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" t="s">
-        <v>81</v>
-      </c>
-      <c r="G13" t="s">
-        <v>69</v>
-      </c>
-      <c r="H13" t="s">
-        <v>70</v>
-      </c>
-      <c r="I13" t="s">
-        <v>82</v>
-      </c>
-      <c r="J13" t="s">
-        <v>70</v>
-      </c>
-      <c r="K13" t="s">
-        <v>83</v>
-      </c>
-      <c r="M13" t="s">
-        <v>84</v>
-      </c>
-      <c r="N13" t="s">
-        <v>84</v>
-      </c>
-      <c r="P13" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -3721,12 +3677,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17.25"/>
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" s="34" t="s">
@@ -3761,126 +3717,126 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D7" s="51" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E7" s="52" t="s">
         <v>54</v>
       </c>
       <c r="F7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="H7" t="s">
         <v>87</v>
       </c>
-      <c r="G7" s="53" t="s">
+      <c r="I7" t="s">
         <v>88</v>
       </c>
-      <c r="H7" t="s">
+      <c r="J7" t="s">
         <v>89</v>
       </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>90</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>91</v>
       </c>
-      <c r="K7" t="s">
+      <c r="M7" t="s">
         <v>92</v>
       </c>
-      <c r="L7" t="s">
+      <c r="N7" t="s">
         <v>93</v>
       </c>
-      <c r="M7" t="s">
+      <c r="O7" t="s">
         <v>94</v>
       </c>
-      <c r="N7" t="s">
+      <c r="P7" t="s">
         <v>95</v>
       </c>
-      <c r="O7" t="s">
+      <c r="Q7" t="s">
         <v>96</v>
       </c>
-      <c r="P7" t="s">
+      <c r="R7" t="s">
         <v>97</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="S7" t="s">
         <v>98</v>
       </c>
-      <c r="R7" t="s">
+      <c r="T7" t="s">
         <v>99</v>
       </c>
-      <c r="S7" t="s">
+      <c r="U7" t="s">
         <v>100</v>
       </c>
-      <c r="T7" t="s">
+      <c r="V7" t="s">
         <v>101</v>
       </c>
-      <c r="U7" t="s">
+      <c r="W7" t="s">
         <v>102</v>
       </c>
-      <c r="V7" t="s">
+      <c r="X7" t="s">
         <v>103</v>
-      </c>
-      <c r="W7" t="s">
-        <v>104</v>
-      </c>
-      <c r="X7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:24">
       <c r="E8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" t="s">
+        <v>105</v>
+      </c>
+      <c r="I8" t="s">
         <v>106</v>
       </c>
-      <c r="G8" t="s">
-        <v>69</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="J8" t="s">
         <v>107</v>
       </c>
-      <c r="I8" t="s">
+      <c r="K8" t="s">
         <v>108</v>
       </c>
-      <c r="J8" t="s">
+      <c r="L8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M8" t="s">
+        <v>76</v>
+      </c>
+      <c r="N8" t="s">
         <v>109</v>
       </c>
-      <c r="K8" t="s">
-        <v>82</v>
-      </c>
-      <c r="L8" t="s">
-        <v>69</v>
-      </c>
-      <c r="M8" t="s">
-        <v>73</v>
-      </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>110</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>111</v>
       </c>
-      <c r="P8" t="s">
+      <c r="R8" t="s">
         <v>112</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>113</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>114</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
+        <v>114</v>
+      </c>
+      <c r="V8" t="s">
         <v>115</v>
       </c>
-      <c r="U8" t="s">
+      <c r="W8" t="s">
         <v>116</v>
-      </c>
-      <c r="V8" t="s">
-        <v>117</v>
-      </c>
-      <c r="X8" t="s">
-        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -3890,17 +3846,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
-  <cols>
-    <col min="6" max="6" width="28.6640625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="17.25"/>
   <sheetData>
     <row r="1" spans="1:30">
       <c r="A1" s="41" t="s">
@@ -3935,170 +3886,170 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D7" s="54" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E7" s="55" t="s">
         <v>54</v>
       </c>
       <c r="F7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H7" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" t="s">
+        <v>120</v>
+      </c>
+      <c r="J7" t="s">
         <v>121</v>
       </c>
-      <c r="G7" t="s">
-        <v>87</v>
-      </c>
-      <c r="H7" s="56" t="s">
-        <v>88</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>122</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>123</v>
       </c>
-      <c r="K7" t="s">
+      <c r="M7" t="s">
         <v>124</v>
       </c>
-      <c r="L7" t="s">
+      <c r="N7" t="s">
         <v>125</v>
       </c>
-      <c r="M7" t="s">
+      <c r="O7" t="s">
         <v>126</v>
       </c>
-      <c r="N7" t="s">
+      <c r="P7" t="s">
         <v>127</v>
       </c>
-      <c r="O7" t="s">
+      <c r="Q7" t="s">
         <v>128</v>
       </c>
-      <c r="P7" t="s">
+      <c r="R7" t="s">
         <v>129</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="S7" t="s">
         <v>130</v>
       </c>
-      <c r="R7" t="s">
+      <c r="T7" t="s">
         <v>131</v>
       </c>
-      <c r="S7" t="s">
+      <c r="U7" t="s">
         <v>132</v>
       </c>
-      <c r="T7" t="s">
+      <c r="V7" t="s">
         <v>133</v>
       </c>
-      <c r="U7" t="s">
+      <c r="W7" t="s">
         <v>134</v>
       </c>
-      <c r="V7" t="s">
+      <c r="X7" t="s">
         <v>135</v>
       </c>
-      <c r="W7" t="s">
+      <c r="Y7" t="s">
         <v>136</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Z7" t="s">
         <v>137</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="AA7" t="s">
         <v>138</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AB7" t="s">
         <v>139</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AC7" t="s">
         <v>140</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AD7" t="s">
         <v>141</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>142</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:30">
       <c r="E8" t="s">
-        <v>67</v>
-      </c>
-      <c r="F8" s="62" t="s">
-        <v>149</v>
+        <v>70</v>
+      </c>
+      <c r="F8" t="s">
+        <v>142</v>
       </c>
       <c r="G8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I8" t="s">
+        <v>143</v>
+      </c>
+      <c r="J8" t="s">
         <v>144</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>145</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>146</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
+        <v>72</v>
+      </c>
+      <c r="N8" t="s">
+        <v>72</v>
+      </c>
+      <c r="O8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P8" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>72</v>
+      </c>
+      <c r="S8" t="s">
+        <v>72</v>
+      </c>
+      <c r="T8" t="s">
+        <v>76</v>
+      </c>
+      <c r="U8" t="s">
+        <v>76</v>
+      </c>
+      <c r="V8" t="s">
+        <v>76</v>
+      </c>
+      <c r="W8" t="s">
+        <v>75</v>
+      </c>
+      <c r="X8" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y8" t="s">
         <v>147</v>
       </c>
-      <c r="M8" t="s">
-        <v>73</v>
-      </c>
-      <c r="N8" t="s">
-        <v>69</v>
-      </c>
-      <c r="O8" t="s">
-        <v>69</v>
-      </c>
-      <c r="P8" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>69</v>
-      </c>
-      <c r="S8" t="s">
-        <v>69</v>
-      </c>
-      <c r="T8" t="s">
-        <v>73</v>
-      </c>
-      <c r="U8" t="s">
-        <v>73</v>
-      </c>
-      <c r="V8" t="s">
-        <v>73</v>
-      </c>
-      <c r="W8" t="s">
+      <c r="Z8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB8" t="s">
         <v>72</v>
       </c>
-      <c r="X8" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>148</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>69</v>
-      </c>
       <c r="AC8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="AD8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-oauth.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-oauth.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\WorkDev\hzero-resource\init-data\hzero-platform\hzero_platform\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\hzero-platform\src\main\resources\script\db\init-data\hzero_platform\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018375A4-1331-493A-83ED-10255F1D8FBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="14220" tabRatio="597" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -2273,9 +2274,6 @@
     <t>force_modify_password</t>
   </si>
   <si>
-    <t>HZERO</t>
-  </si>
-  <si>
     <t>admin1234</t>
   </si>
   <si>
@@ -2289,12 +2287,15 @@
   </si>
   <si>
     <t>3</t>
+  </si>
+  <si>
+    <t>HZERO-PLATFORM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="48">
     <font>
       <sz val="12"/>
@@ -2832,7 +2833,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
@@ -3172,7 +3173,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3413,10 +3414,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
@@ -3677,7 +3678,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3846,10 +3847,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AD8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
   <sheetData>
@@ -3975,7 +3978,7 @@
         <v>70</v>
       </c>
       <c r="F8" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G8" t="s">
         <v>104</v>
@@ -3984,16 +3987,16 @@
         <v>72</v>
       </c>
       <c r="I8" t="s">
+        <v>142</v>
+      </c>
+      <c r="J8" t="s">
         <v>143</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>144</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>145</v>
-      </c>
-      <c r="L8" t="s">
-        <v>146</v>
       </c>
       <c r="M8" t="s">
         <v>72</v>
@@ -4029,7 +4032,7 @@
         <v>76</v>
       </c>
       <c r="Y8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Z8" t="s">
         <v>76</v>

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-oauth.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-oauth.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\hzero-platform\src\main\resources\script\db\init-data\hzero_platform\hzero_platform\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\c7n-hzero\hzero-platform\src\main\resources\script\db\init-data\hzero_platform\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018375A4-1331-493A-83ED-10255F1D8FBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06EA99E-C998-478B-BBE4-CE42AC9BDC4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="597" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="147">
   <si>
     <r>
       <rPr>
@@ -2163,21 +2163,9 @@
     <t>HZERO平台</t>
   </si>
   <si>
-    <t>ldap://ac.hand-china.com</t>
-  </si>
-  <si>
     <t>389</t>
   </si>
   <si>
-    <t>VC112</t>
-  </si>
-  <si>
-    <t>Hand2019Ldap</t>
-  </si>
-  <si>
-    <t>ou=employee,dc=hand-china,dc=com</t>
-  </si>
-  <si>
     <t>OpenLDAP</t>
   </si>
   <si>
@@ -2290,6 +2278,18 @@
   </si>
   <si>
     <t>HZERO-PLATFORM</t>
+  </si>
+  <si>
+    <t>ldap://ac.example.com</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>root</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>ou=employee,dc=choerodon,dc=com</t>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2733,7 +2733,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2830,6 +2830,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3178,21 +3179,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.58203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.109375" customWidth="1"/>
+    <col min="3" max="3" width="28.08203125" customWidth="1"/>
     <col min="4" max="4" width="35.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="38.5546875" customWidth="1"/>
-    <col min="6" max="6" width="23.44140625" customWidth="1"/>
-    <col min="7" max="7" width="21.5546875" customWidth="1"/>
+    <col min="5" max="5" width="38.58203125" customWidth="1"/>
+    <col min="6" max="6" width="23.4140625" customWidth="1"/>
+    <col min="7" max="7" width="21.58203125" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5546875" customWidth="1"/>
+    <col min="9" max="9" width="24.58203125" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.109375" customWidth="1"/>
-    <col min="12" max="12" width="18.5546875" customWidth="1"/>
-    <col min="13" max="13" width="13.109375" customWidth="1"/>
+    <col min="11" max="11" width="19.08203125" customWidth="1"/>
+    <col min="12" max="12" width="18.58203125" customWidth="1"/>
+    <col min="13" max="13" width="13.08203125" customWidth="1"/>
     <col min="14" max="1025" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3207,7 +3208,7 @@
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:8" ht="18">
+    <row r="2" spans="1:8">
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
@@ -3221,7 +3222,7 @@
       <c r="F3" s="59"/>
       <c r="G3" s="59"/>
     </row>
-    <row r="4" spans="1:8" ht="18">
+    <row r="4" spans="1:8">
       <c r="C4" s="60" t="s">
         <v>3</v>
       </c>
@@ -3242,7 +3243,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18">
+    <row r="7" spans="1:8">
       <c r="C7" s="10" t="s">
         <v>8</v>
       </c>
@@ -3262,7 +3263,7 @@
       </c>
       <c r="E8" s="15"/>
     </row>
-    <row r="9" spans="1:8" ht="51.75">
+    <row r="9" spans="1:8" ht="52.2">
       <c r="C9" s="16" t="s">
         <v>13</v>
       </c>
@@ -3276,7 +3277,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="51.75">
+    <row r="10" spans="1:8" ht="52.2">
       <c r="C10" s="19" t="s">
         <v>17</v>
       </c>
@@ -3287,7 +3288,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="69">
+    <row r="11" spans="1:8" ht="69.599999999999994">
       <c r="C11" s="13" t="s">
         <v>20</v>
       </c>
@@ -3319,7 +3320,7 @@
       <c r="D14" s="14"/>
       <c r="E14" s="15"/>
     </row>
-    <row r="15" spans="1:8" ht="34.5">
+    <row r="15" spans="1:8" ht="34.799999999999997">
       <c r="C15" s="21" t="s">
         <v>26</v>
       </c>
@@ -3342,7 +3343,7 @@
       <c r="D19" s="61"/>
       <c r="E19" s="61"/>
     </row>
-    <row r="20" spans="3:5" ht="18">
+    <row r="20" spans="3:5">
       <c r="C20" s="24" t="s">
         <v>31</v>
       </c>
@@ -3350,7 +3351,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5" ht="18">
+    <row r="21" spans="3:5">
       <c r="C21" s="24" t="s">
         <v>33</v>
       </c>
@@ -3358,7 +3359,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:5" ht="18">
+    <row r="22" spans="3:5">
       <c r="C22" s="24" t="s">
         <v>35</v>
       </c>
@@ -3366,7 +3367,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:5" ht="18">
+    <row r="23" spans="3:5">
       <c r="C23" s="24" t="s">
         <v>37</v>
       </c>
@@ -3392,7 +3393,7 @@
       </c>
       <c r="E26" s="57"/>
     </row>
-    <row r="27" spans="3:5" ht="51.75">
+    <row r="27" spans="3:5" ht="52.2">
       <c r="C27" s="26" t="s">
         <v>43</v>
       </c>
@@ -3421,7 +3422,7 @@
       <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="27" t="s">
@@ -3681,9 +3682,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="8" max="8" width="54.4140625" customWidth="1"/>
+    <col min="11" max="11" width="40.4140625" customWidth="1"/>
+    <col min="14" max="14" width="47.9140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" s="34" t="s">
@@ -3794,17 +3802,17 @@
       <c r="G8" t="s">
         <v>72</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="I8" t="s">
         <v>105</v>
       </c>
-      <c r="I8" t="s">
-        <v>106</v>
-      </c>
-      <c r="J8" t="s">
-        <v>107</v>
-      </c>
-      <c r="K8" t="s">
-        <v>108</v>
+      <c r="J8" s="62" t="s">
+        <v>145</v>
+      </c>
+      <c r="K8" s="62" t="s">
+        <v>145</v>
       </c>
       <c r="L8" t="s">
         <v>72</v>
@@ -3812,32 +3820,32 @@
       <c r="M8" t="s">
         <v>76</v>
       </c>
-      <c r="N8" t="s">
+      <c r="N8" s="62" t="s">
+        <v>146</v>
+      </c>
+      <c r="O8" t="s">
+        <v>106</v>
+      </c>
+      <c r="P8" t="s">
+        <v>107</v>
+      </c>
+      <c r="R8" t="s">
+        <v>108</v>
+      </c>
+      <c r="S8" t="s">
         <v>109</v>
       </c>
-      <c r="O8" t="s">
+      <c r="T8" t="s">
         <v>110</v>
       </c>
-      <c r="P8" t="s">
+      <c r="U8" t="s">
+        <v>110</v>
+      </c>
+      <c r="V8" t="s">
         <v>111</v>
       </c>
-      <c r="R8" t="s">
+      <c r="W8" t="s">
         <v>112</v>
-      </c>
-      <c r="S8" t="s">
-        <v>113</v>
-      </c>
-      <c r="T8" t="s">
-        <v>114</v>
-      </c>
-      <c r="U8" t="s">
-        <v>114</v>
-      </c>
-      <c r="V8" t="s">
-        <v>115</v>
-      </c>
-      <c r="W8" t="s">
-        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -3850,11 +3858,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AD8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="9" max="9" width="26.58203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:30">
       <c r="A1" s="41" t="s">
@@ -3889,16 +3900,16 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D7" s="54" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E7" s="55" t="s">
         <v>54</v>
       </c>
       <c r="F7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G7" t="s">
         <v>85</v>
@@ -3907,70 +3918,70 @@
         <v>86</v>
       </c>
       <c r="I7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L7" t="s">
+        <v>119</v>
+      </c>
+      <c r="M7" t="s">
         <v>120</v>
       </c>
-      <c r="J7" t="s">
+      <c r="N7" t="s">
         <v>121</v>
       </c>
-      <c r="K7" t="s">
+      <c r="O7" t="s">
         <v>122</v>
       </c>
-      <c r="L7" t="s">
+      <c r="P7" t="s">
         <v>123</v>
       </c>
-      <c r="M7" t="s">
+      <c r="Q7" t="s">
         <v>124</v>
       </c>
-      <c r="N7" t="s">
+      <c r="R7" t="s">
         <v>125</v>
       </c>
-      <c r="O7" t="s">
+      <c r="S7" t="s">
         <v>126</v>
       </c>
-      <c r="P7" t="s">
+      <c r="T7" t="s">
         <v>127</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="U7" t="s">
         <v>128</v>
       </c>
-      <c r="R7" t="s">
+      <c r="V7" t="s">
         <v>129</v>
       </c>
-      <c r="S7" t="s">
+      <c r="W7" t="s">
         <v>130</v>
       </c>
-      <c r="T7" t="s">
+      <c r="X7" t="s">
         <v>131</v>
       </c>
-      <c r="U7" t="s">
+      <c r="Y7" t="s">
         <v>132</v>
       </c>
-      <c r="V7" t="s">
+      <c r="Z7" t="s">
         <v>133</v>
       </c>
-      <c r="W7" t="s">
+      <c r="AA7" t="s">
         <v>134</v>
       </c>
-      <c r="X7" t="s">
+      <c r="AB7" t="s">
         <v>135</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="AC7" t="s">
         <v>136</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AD7" t="s">
         <v>137</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>140</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:30">
@@ -3978,7 +3989,7 @@
         <v>70</v>
       </c>
       <c r="F8" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G8" t="s">
         <v>104</v>
@@ -3987,16 +3998,16 @@
         <v>72</v>
       </c>
       <c r="I8" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="J8" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="K8" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="L8" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="M8" t="s">
         <v>72</v>
@@ -4032,7 +4043,7 @@
         <v>76</v>
       </c>
       <c r="Y8" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="Z8" t="s">
         <v>76</v>

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-oauth.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-oauth.xlsx
@@ -1,35 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\c7n-hzero\hzero-platform\src\main\resources\script\db\init-data\hzero_platform\hzero_platform\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\WorkDev\hzero-generator\src\main\resources\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06EA99E-C998-478B-BBE4-CE42AC9BDC4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="597" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="14220" tabRatio="597"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
-    <sheet name="客户端" sheetId="2" r:id="rId2"/>
-    <sheet name="LDAP" sheetId="3" r:id="rId3"/>
-    <sheet name="安全策略" sheetId="4" r:id="rId4"/>
+    <sheet name="客户端" r:id="rId5" sheetId="2"/>
+    <sheet name="LDAP" r:id="rId6" sheetId="3"/>
+    <sheet name="安全策略" r:id="rId7" sheetId="4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
-    <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
-    <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
+    <definedName name="qwe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
+    <definedName name="wqewqe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="162">
   <si>
     <r>
       <rPr>
@@ -1998,7 +1997,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-07-06</t>
+    <t>2020-09-11</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2058,6 +2057,15 @@
     <t>time_zone</t>
   </si>
   <si>
+    <t>api_encrypt_flag</t>
+  </si>
+  <si>
+    <t>api_replay_flag</t>
+  </si>
+  <si>
+    <t>password_encrypt_flag</t>
+  </si>
+  <si>
     <t>*</t>
   </si>
   <si>
@@ -2097,6 +2105,42 @@
     <t>360000</t>
   </si>
   <si>
+    <t>hzero-front-lowcode</t>
+  </si>
+  <si>
+    <t>CLCMS</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>client_credentials</t>
+  </si>
+  <si>
+    <t>3600</t>
+  </si>
+  <si>
+    <t>HZERO-0702</t>
+  </si>
+  <si>
+    <t>hand123</t>
+  </si>
+  <si>
+    <t>GMT+1</t>
+  </si>
+  <si>
+    <t>hzero-interface-15637</t>
+  </si>
+  <si>
+    <t>hitg-nke</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>replay</t>
+  </si>
+  <si>
     <t>LDAP</t>
   </si>
   <si>
@@ -2163,9 +2207,18 @@
     <t>HZERO平台</t>
   </si>
   <si>
+    <t>127.0.0.1</t>
+  </si>
+  <si>
     <t>389</t>
   </si>
   <si>
+    <t>******</t>
+  </si>
+  <si>
+    <t>ou=employee,dc=hand,dc=com</t>
+  </si>
+  <si>
     <t>OpenLDAP</t>
   </si>
   <si>
@@ -2262,6 +2315,9 @@
     <t>force_modify_password</t>
   </si>
   <si>
+    <t>HZERO</t>
+  </si>
+  <si>
     <t>admin1234</t>
   </si>
   <si>
@@ -2275,27 +2331,13 @@
   </si>
   <si>
     <t>3</t>
-  </si>
-  <si>
-    <t>HZERO-PLATFORM</t>
-  </si>
-  <si>
-    <t>ldap://ac.example.com</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>root</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>ou=employee,dc=choerodon,dc=com</t>
-    <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="48">
     <font>
       <sz val="12"/>
@@ -2415,184 +2457,154 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="42"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="42"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="42"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2733,7 +2745,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2785,36 +2797,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2830,11 +2812,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
@@ -3174,59 +3185,59 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="15.58203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.08203125" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="38.58203125" customWidth="1"/>
-    <col min="6" max="6" width="23.4140625" customWidth="1"/>
-    <col min="7" max="7" width="21.58203125" customWidth="1"/>
-    <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.58203125" customWidth="1"/>
-    <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.08203125" customWidth="1"/>
-    <col min="12" max="12" width="18.58203125" customWidth="1"/>
-    <col min="13" max="13" width="13.08203125" customWidth="1"/>
-    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="15.5546875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="2" width="10.33203125" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="28.109375" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="3" width="35.33203125" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="38.5546875" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="23.44140625" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="21.5546875" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="22.0" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="24.5546875" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="27.0" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="19.109375" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="18.5546875" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="13.109375" collapsed="false"/>
+    <col min="14" max="1025" customWidth="true" width="10.33203125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="18">
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="59" t="s">
+      <c r="D3" s="27"/>
+      <c r="E3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
     </row>
-    <row r="4" spans="1:8">
-      <c r="C4" s="60" t="s">
+    <row r="4" spans="1:8" ht="18">
+      <c r="C4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="60"/>
+      <c r="D4" s="30"/>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
@@ -3243,7 +3254,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" ht="18">
       <c r="C7" s="10" t="s">
         <v>8</v>
       </c>
@@ -3263,7 +3274,7 @@
       </c>
       <c r="E8" s="15"/>
     </row>
-    <row r="9" spans="1:8" ht="52.2">
+    <row r="9" spans="1:8" ht="51.75">
       <c r="C9" s="16" t="s">
         <v>13</v>
       </c>
@@ -3277,7 +3288,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="52.2">
+    <row r="10" spans="1:8" ht="51.75">
       <c r="C10" s="19" t="s">
         <v>17</v>
       </c>
@@ -3288,7 +3299,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="69.599999999999994">
+    <row r="11" spans="1:8" ht="69">
       <c r="C11" s="13" t="s">
         <v>20</v>
       </c>
@@ -3320,7 +3331,7 @@
       <c r="D14" s="14"/>
       <c r="E14" s="15"/>
     </row>
-    <row r="15" spans="1:8" ht="34.799999999999997">
+    <row r="15" spans="1:8" ht="34.5">
       <c r="C15" s="21" t="s">
         <v>26</v>
       </c>
@@ -3337,13 +3348,13 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="61" t="s">
+      <c r="C19" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
     </row>
-    <row r="20" spans="3:5">
+    <row r="20" spans="3:5" ht="18">
       <c r="C20" s="24" t="s">
         <v>31</v>
       </c>
@@ -3351,7 +3362,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5">
+    <row r="21" spans="3:5" ht="18">
       <c r="C21" s="24" t="s">
         <v>33</v>
       </c>
@@ -3359,7 +3370,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:5">
+    <row r="22" spans="3:5" ht="18">
       <c r="C22" s="24" t="s">
         <v>35</v>
       </c>
@@ -3367,7 +3378,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:5">
+    <row r="23" spans="3:5" ht="18">
       <c r="C23" s="24" t="s">
         <v>37</v>
       </c>
@@ -3379,21 +3390,21 @@
       <c r="C25" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="57" t="s">
+      <c r="D25" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="57"/>
+      <c r="E25" s="27"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="57" t="s">
+      <c r="D26" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="57"/>
+      <c r="E26" s="27"/>
     </row>
-    <row r="27" spans="3:5" ht="52.2">
+    <row r="27" spans="3:5" ht="51.75">
       <c r="C27" s="26" t="s">
         <v>43</v>
       </c>
@@ -3415,41 +3426,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:T11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:W17"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:20">
-      <c r="A1" s="27" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="32">
         <v>44</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" t="s" s="33">
         <v>45</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" t="s" s="34">
         <v>9</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" t="s" s="35">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
-      <c r="E4" s="31" t="s">
+    <row r="4">
+      <c r="E4" t="s" s="36">
         <v>47</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" t="s" s="37">
         <v>48</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" t="s" s="38">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -3459,13 +3468,13 @@
       <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="D7" t="s" s="53">
         <v>53</v>
       </c>
-      <c r="E7" s="49" t="s">
+      <c r="E7" t="s" s="54">
         <v>54</v>
       </c>
-      <c r="F7" s="50" t="s">
+      <c r="F7" t="s" s="55">
         <v>55</v>
       </c>
       <c r="G7" t="s">
@@ -3510,215 +3519,555 @@
       <c r="T7" t="s">
         <v>69</v>
       </c>
+      <c r="U7" t="s">
+        <v>70</v>
+      </c>
+      <c r="V7" t="s">
+        <v>71</v>
+      </c>
+      <c r="W7" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8">
       <c r="E8" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H8" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I8" t="s">
         <v>58</v>
       </c>
       <c r="J8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K8" t="s">
+        <v>77</v>
+      </c>
+      <c r="M8" t="s">
+        <v>78</v>
+      </c>
+      <c r="N8" t="s">
+        <v>78</v>
+      </c>
+      <c r="P8" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>79</v>
+      </c>
+      <c r="S8" t="s">
+        <v>79</v>
+      </c>
+      <c r="T8" t="s">
+        <v>80</v>
+      </c>
+      <c r="U8" t="s">
+        <v>79</v>
+      </c>
+      <c r="V8" t="s">
+        <v>75</v>
+      </c>
+      <c r="W8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="E9" t="s">
         <v>73</v>
       </c>
-      <c r="K8" t="s">
-        <v>74</v>
-      </c>
-      <c r="M8" t="s">
+      <c r="F9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" t="s">
         <v>75</v>
       </c>
-      <c r="N8" t="s">
-        <v>75</v>
-      </c>
-      <c r="P8" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q8" t="s">
+      <c r="H9" t="s">
         <v>76</v>
-      </c>
-      <c r="S8" t="s">
-        <v>76</v>
-      </c>
-      <c r="T8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="E9" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" t="s">
-        <v>78</v>
-      </c>
-      <c r="G9" t="s">
-        <v>72</v>
-      </c>
-      <c r="H9" t="s">
-        <v>73</v>
       </c>
       <c r="I9" t="s">
         <v>58</v>
       </c>
       <c r="J9" t="s">
+        <v>76</v>
+      </c>
+      <c r="K9" t="s">
+        <v>77</v>
+      </c>
+      <c r="M9" t="s">
+        <v>78</v>
+      </c>
+      <c r="P9" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>79</v>
+      </c>
+      <c r="S9" t="s">
+        <v>75</v>
+      </c>
+      <c r="T9" t="s">
+        <v>80</v>
+      </c>
+      <c r="U9" t="s">
+        <v>79</v>
+      </c>
+      <c r="V9" t="s">
+        <v>75</v>
+      </c>
+      <c r="W9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="E10" t="s">
         <v>73</v>
       </c>
-      <c r="K9" t="s">
-        <v>74</v>
-      </c>
-      <c r="M9" t="s">
+      <c r="F10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" t="s">
         <v>75</v>
       </c>
-      <c r="P9" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q9" t="s">
+      <c r="H10" t="s">
         <v>76</v>
-      </c>
-      <c r="S9" t="s">
-        <v>72</v>
-      </c>
-      <c r="T9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="E10" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10" t="s">
-        <v>79</v>
-      </c>
-      <c r="G10" t="s">
-        <v>72</v>
-      </c>
-      <c r="H10" t="s">
-        <v>73</v>
       </c>
       <c r="I10" t="s">
         <v>58</v>
       </c>
       <c r="J10" t="s">
+        <v>76</v>
+      </c>
+      <c r="K10" t="s">
+        <v>77</v>
+      </c>
+      <c r="M10" t="s">
+        <v>78</v>
+      </c>
+      <c r="N10" t="s">
+        <v>78</v>
+      </c>
+      <c r="P10" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>79</v>
+      </c>
+      <c r="S10" t="s">
+        <v>79</v>
+      </c>
+      <c r="T10" t="s">
+        <v>80</v>
+      </c>
+      <c r="U10" t="s">
+        <v>79</v>
+      </c>
+      <c r="V10" t="s">
+        <v>79</v>
+      </c>
+      <c r="W10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="E11" t="s">
         <v>73</v>
       </c>
-      <c r="K10" t="s">
-        <v>74</v>
-      </c>
-      <c r="M10" t="s">
+      <c r="F11" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" t="s">
         <v>75</v>
       </c>
-      <c r="N10" t="s">
+      <c r="H11" t="s">
+        <v>76</v>
+      </c>
+      <c r="I11" t="s">
+        <v>84</v>
+      </c>
+      <c r="J11" t="s">
+        <v>76</v>
+      </c>
+      <c r="K11" t="s">
+        <v>77</v>
+      </c>
+      <c r="M11" t="s">
+        <v>78</v>
+      </c>
+      <c r="N11" t="s">
+        <v>85</v>
+      </c>
+      <c r="P11" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>79</v>
+      </c>
+      <c r="S11" t="s">
         <v>75</v>
       </c>
-      <c r="P10" t="s">
+      <c r="T11" t="s">
+        <v>80</v>
+      </c>
+      <c r="U11" t="s">
+        <v>79</v>
+      </c>
+      <c r="V11" t="s">
+        <v>75</v>
+      </c>
+      <c r="W11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="E12" t="s">
         <v>73</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="F12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" t="s">
         <v>76</v>
       </c>
-      <c r="S10" t="s">
+      <c r="I12" t="s">
+        <v>58</v>
+      </c>
+      <c r="J12" t="s">
         <v>76</v>
       </c>
-      <c r="T10" t="s">
+      <c r="K12" t="s">
         <v>77</v>
       </c>
+      <c r="M12" t="s">
+        <v>78</v>
+      </c>
+      <c r="N12" t="s">
+        <v>78</v>
+      </c>
+      <c r="P12" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>79</v>
+      </c>
+      <c r="S12" t="s">
+        <v>75</v>
+      </c>
+      <c r="T12" t="s">
+        <v>80</v>
+      </c>
+      <c r="U12" t="s">
+        <v>79</v>
+      </c>
+      <c r="V12" t="s">
+        <v>75</v>
+      </c>
+      <c r="W12" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="11" spans="1:20">
-      <c r="E11" t="s">
-        <v>70</v>
-      </c>
-      <c r="F11" t="s">
+    <row r="13">
+      <c r="E13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" t="s">
+        <v>87</v>
+      </c>
+      <c r="G13" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" t="s">
+        <v>76</v>
+      </c>
+      <c r="I13" t="s">
+        <v>88</v>
+      </c>
+      <c r="J13" t="s">
+        <v>76</v>
+      </c>
+      <c r="K13" t="s">
+        <v>89</v>
+      </c>
+      <c r="M13" t="s">
+        <v>90</v>
+      </c>
+      <c r="N13" t="s">
+        <v>90</v>
+      </c>
+      <c r="P13" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>79</v>
+      </c>
+      <c r="S13" t="s">
+        <v>75</v>
+      </c>
+      <c r="T13" t="s">
         <v>80</v>
       </c>
-      <c r="G11" t="s">
-        <v>72</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="U13" t="s">
+        <v>79</v>
+      </c>
+      <c r="V13" t="s">
+        <v>75</v>
+      </c>
+      <c r="W13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="E14" t="s">
         <v>73</v>
       </c>
-      <c r="I11" t="s">
-        <v>81</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="F14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G14" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14" t="s">
+        <v>76</v>
+      </c>
+      <c r="I14" t="s">
+        <v>92</v>
+      </c>
+      <c r="J14" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14" t="s">
+        <v>77</v>
+      </c>
+      <c r="M14" t="s">
+        <v>90</v>
+      </c>
+      <c r="N14" t="s">
+        <v>90</v>
+      </c>
+      <c r="P14" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>79</v>
+      </c>
+      <c r="S14" t="s">
+        <v>79</v>
+      </c>
+      <c r="T14" t="s">
+        <v>93</v>
+      </c>
+      <c r="U14" t="s">
+        <v>79</v>
+      </c>
+      <c r="V14" t="s">
+        <v>75</v>
+      </c>
+      <c r="W14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="E15" t="s">
         <v>73</v>
       </c>
-      <c r="K11" t="s">
-        <v>74</v>
-      </c>
-      <c r="M11" t="s">
+      <c r="F15" t="s">
+        <v>94</v>
+      </c>
+      <c r="G15" t="s">
         <v>75</v>
       </c>
-      <c r="N11" t="s">
-        <v>82</v>
-      </c>
-      <c r="P11" t="s">
+      <c r="H15" t="s">
+        <v>76</v>
+      </c>
+      <c r="I15" t="s">
+        <v>58</v>
+      </c>
+      <c r="J15" t="s">
+        <v>76</v>
+      </c>
+      <c r="K15" t="s">
+        <v>77</v>
+      </c>
+      <c r="M15" t="s">
+        <v>90</v>
+      </c>
+      <c r="N15" t="s">
+        <v>90</v>
+      </c>
+      <c r="P15" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>79</v>
+      </c>
+      <c r="S15" t="s">
+        <v>79</v>
+      </c>
+      <c r="T15" t="s">
+        <v>80</v>
+      </c>
+      <c r="U15" t="s">
+        <v>79</v>
+      </c>
+      <c r="V15" t="s">
+        <v>75</v>
+      </c>
+      <c r="W15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="E16" t="s">
         <v>73</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="F16" t="s">
+        <v>95</v>
+      </c>
+      <c r="G16" t="s">
+        <v>75</v>
+      </c>
+      <c r="H16" t="s">
         <v>76</v>
       </c>
-      <c r="S11" t="s">
-        <v>72</v>
-      </c>
-      <c r="T11" t="s">
+      <c r="I16" t="s">
+        <v>58</v>
+      </c>
+      <c r="J16" t="s">
+        <v>76</v>
+      </c>
+      <c r="K16" t="s">
         <v>77</v>
+      </c>
+      <c r="M16" t="s">
+        <v>90</v>
+      </c>
+      <c r="N16" t="s">
+        <v>90</v>
+      </c>
+      <c r="P16" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>79</v>
+      </c>
+      <c r="R16" t="s">
+        <v>96</v>
+      </c>
+      <c r="S16" t="s">
+        <v>79</v>
+      </c>
+      <c r="T16" t="s">
+        <v>80</v>
+      </c>
+      <c r="U16" t="s">
+        <v>75</v>
+      </c>
+      <c r="V16" t="s">
+        <v>75</v>
+      </c>
+      <c r="W16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="E17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" t="s">
+        <v>75</v>
+      </c>
+      <c r="H17" t="s">
+        <v>76</v>
+      </c>
+      <c r="I17" t="s">
+        <v>58</v>
+      </c>
+      <c r="J17" t="s">
+        <v>76</v>
+      </c>
+      <c r="K17" t="s">
+        <v>77</v>
+      </c>
+      <c r="M17" t="s">
+        <v>90</v>
+      </c>
+      <c r="N17" t="s">
+        <v>90</v>
+      </c>
+      <c r="P17" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>79</v>
+      </c>
+      <c r="S17" t="s">
+        <v>75</v>
+      </c>
+      <c r="T17" t="s">
+        <v>80</v>
+      </c>
+      <c r="U17" t="s">
+        <v>75</v>
+      </c>
+      <c r="V17" t="s">
+        <v>79</v>
+      </c>
+      <c r="W17" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:X8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
-  <cols>
-    <col min="8" max="8" width="54.4140625" customWidth="1"/>
-    <col min="11" max="11" width="40.4140625" customWidth="1"/>
-    <col min="14" max="14" width="47.9140625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:24">
-      <c r="A1" s="34" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="39">
         <v>44</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" t="s" s="40">
         <v>45</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" t="s" s="41">
         <v>9</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" t="s" s="42">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
-      <c r="E4" s="38" t="s">
+    <row r="4">
+      <c r="E4" t="s" s="43">
         <v>47</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" t="s" s="44">
         <v>48</v>
       </c>
-      <c r="G4" s="40" t="s">
+      <c r="G4" t="s" s="45">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -3726,173 +4075,167 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="E7" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" t="s" s="56">
+        <v>99</v>
+      </c>
+      <c r="E7" t="s" s="57">
         <v>54</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G7" s="53" t="s">
-        <v>86</v>
+        <v>100</v>
+      </c>
+      <c r="G7" t="s" s="58">
+        <v>101</v>
       </c>
       <c r="H7" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="I7" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="J7" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="K7" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="L7" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="M7" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="N7" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="O7" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="P7" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="Q7" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="R7" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="S7" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="T7" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="U7" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="V7" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="W7" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="X7" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8">
       <c r="E8" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F8" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="G8" t="s">
-        <v>72</v>
-      </c>
-      <c r="H8" s="62" t="s">
-        <v>144</v>
+        <v>75</v>
+      </c>
+      <c r="H8" t="s">
+        <v>120</v>
       </c>
       <c r="I8" t="s">
-        <v>105</v>
-      </c>
-      <c r="J8" s="62" t="s">
-        <v>145</v>
-      </c>
-      <c r="K8" s="62" t="s">
-        <v>145</v>
+        <v>121</v>
+      </c>
+      <c r="J8" t="s">
+        <v>122</v>
+      </c>
+      <c r="K8" t="s">
+        <v>122</v>
       </c>
       <c r="L8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M8" t="s">
-        <v>76</v>
-      </c>
-      <c r="N8" s="62" t="s">
-        <v>146</v>
+        <v>79</v>
+      </c>
+      <c r="N8" t="s">
+        <v>123</v>
       </c>
       <c r="O8" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="P8" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="R8" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="S8" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="T8" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="U8" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="V8" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="W8" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:AD8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
-  <cols>
-    <col min="9" max="9" width="26.58203125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:30">
-      <c r="A1" s="41" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="46">
         <v>44</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" t="s" s="47">
         <v>45</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" t="s" s="48">
         <v>9</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" t="s" s="49">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
-      <c r="E4" s="45" t="s">
+    <row r="4">
+      <c r="E4" t="s" s="50">
         <v>47</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="F4" t="s" s="51">
         <v>48</v>
       </c>
-      <c r="G4" s="47" t="s">
+      <c r="G4" t="s" s="52">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -3900,170 +4243,168 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D7" s="54" t="s">
-        <v>114</v>
-      </c>
-      <c r="E7" s="55" t="s">
+        <v>131</v>
+      </c>
+      <c r="D7" t="s" s="59">
+        <v>132</v>
+      </c>
+      <c r="E7" t="s" s="60">
         <v>54</v>
       </c>
       <c r="F7" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="G7" t="s">
-        <v>85</v>
-      </c>
-      <c r="H7" s="56" t="s">
-        <v>86</v>
+        <v>100</v>
+      </c>
+      <c r="H7" t="s" s="61">
+        <v>101</v>
       </c>
       <c r="I7" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="J7" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="K7" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="L7" t="s">
+        <v>137</v>
+      </c>
+      <c r="M7" t="s">
+        <v>138</v>
+      </c>
+      <c r="N7" t="s">
+        <v>139</v>
+      </c>
+      <c r="O7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>142</v>
+      </c>
+      <c r="R7" t="s">
+        <v>143</v>
+      </c>
+      <c r="S7" t="s">
+        <v>144</v>
+      </c>
+      <c r="T7" t="s">
+        <v>145</v>
+      </c>
+      <c r="U7" t="s">
+        <v>146</v>
+      </c>
+      <c r="V7" t="s">
+        <v>147</v>
+      </c>
+      <c r="W7" t="s">
+        <v>148</v>
+      </c>
+      <c r="X7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>154</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="E8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" t="s">
+        <v>156</v>
+      </c>
+      <c r="G8" t="s">
         <v>119</v>
       </c>
-      <c r="M7" t="s">
-        <v>120</v>
-      </c>
-      <c r="N7" t="s">
-        <v>121</v>
-      </c>
-      <c r="O7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>124</v>
-      </c>
-      <c r="R7" t="s">
-        <v>125</v>
-      </c>
-      <c r="S7" t="s">
-        <v>126</v>
-      </c>
-      <c r="T7" t="s">
-        <v>127</v>
-      </c>
-      <c r="U7" t="s">
-        <v>128</v>
-      </c>
-      <c r="V7" t="s">
-        <v>129</v>
-      </c>
-      <c r="W7" t="s">
-        <v>130</v>
-      </c>
-      <c r="X7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>133</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>134</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>136</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
-      <c r="E8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F8" t="s">
-        <v>143</v>
-      </c>
-      <c r="G8" t="s">
-        <v>104</v>
-      </c>
       <c r="H8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I8" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="J8" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="K8" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="L8" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="M8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="N8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Q8" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="S8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="T8" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="U8" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="V8" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="W8" t="s">
+        <v>78</v>
+      </c>
+      <c r="X8" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB8" t="s">
         <v>75</v>
       </c>
-      <c r="X8" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>142</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>72</v>
-      </c>
       <c r="AC8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AD8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-oauth.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-oauth.xlsx
@@ -1997,7 +1997,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-09-11</t>
+    <t>2020-09-22</t>
   </si>
   <si>
     <t>hzero</t>

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-oauth.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-oauth.xlsx
@@ -1,34 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\WorkDev\hzero-generator\src\main\resources\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IDEAworkspace\项目\hzero-resource\init-data\hzero-platform\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FEB06EC-C3C5-40C6-841E-F58C53D8D9D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="14220" tabRatio="597"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
-    <sheet name="客户端" r:id="rId5" sheetId="2"/>
-    <sheet name="LDAP" r:id="rId6" sheetId="3"/>
-    <sheet name="安全策略" r:id="rId7" sheetId="4"/>
+    <sheet name="客户端" sheetId="2" r:id="rId2"/>
+    <sheet name="LDAP" sheetId="3" r:id="rId3"/>
+    <sheet name="安全策略" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
-    <definedName name="qwe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
-    <definedName name="wqewqe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="164">
   <si>
     <r>
       <rPr>
@@ -1997,7 +1998,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-09-22</t>
+    <t>2021-02-02</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2066,6 +2067,15 @@
     <t>password_encrypt_flag</t>
   </si>
   <si>
+    <t>default_lang</t>
+  </si>
+  <si>
+    <t>last_update_date</t>
+  </si>
+  <si>
+    <t>last_updated_by</t>
+  </si>
+  <si>
     <t>*</t>
   </si>
   <si>
@@ -2087,15 +2097,36 @@
     <t>1</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>GMT+8</t>
   </si>
   <si>
+    <t>zh_CN</t>
+  </si>
+  <si>
+    <t>now</t>
+  </si>
+  <si>
     <t>localhost</t>
   </si>
   <si>
+    <t>password,client_credentials,authorization_code,refresh_token,implicit</t>
+  </si>
+  <si>
+    <t>en_US</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
     <t>hzero-front-uat</t>
   </si>
   <si>
+    <t>124568523237695500</t>
+  </si>
+  <si>
     <t>hzero-front-dev</t>
   </si>
   <si>
@@ -2105,40 +2136,7 @@
     <t>360000</t>
   </si>
   <si>
-    <t>hzero-front-lowcode</t>
-  </si>
-  <si>
-    <t>CLCMS</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>client_credentials</t>
-  </si>
-  <si>
-    <t>3600</t>
-  </si>
-  <si>
-    <t>HZERO-0702</t>
-  </si>
-  <si>
-    <t>hand123</t>
-  </si>
-  <si>
-    <t>GMT+1</t>
-  </si>
-  <si>
-    <t>hzero-interface-15637</t>
-  </si>
-  <si>
-    <t>hitg-nke</t>
-  </si>
-  <si>
-    <t>1,2</t>
-  </si>
-  <si>
-    <t>replay</t>
+    <t>124568523237695491</t>
   </si>
   <si>
     <t>LDAP</t>
@@ -2315,10 +2313,16 @@
     <t>force_modify_password</t>
   </si>
   <si>
+    <t>enable_random_password</t>
+  </si>
+  <si>
+    <t>enable_data_security</t>
+  </si>
+  <si>
     <t>HZERO</t>
   </si>
   <si>
-    <t>admin1234</t>
+    <t>w123456</t>
   </si>
   <si>
     <t>6</t>
@@ -2331,13 +2335,15 @@
   </si>
   <si>
     <t>3</t>
+  </si>
+  <si>
+    <t>1470</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="48">
     <font>
       <sz val="12"/>
@@ -2457,154 +2463,184 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="53"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="48"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="42"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="53"/>
-    </font>
-    <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="42"/>
-    </font>
-    <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="53"/>
-    </font>
-    <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="42"/>
-    </font>
-    <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="53"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="53"/>
-    </font>
-    <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="53"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2797,6 +2833,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2812,40 +2878,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
@@ -3185,36 +3221,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="15.5546875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="2" width="10.33203125" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="28.109375" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="3" width="35.33203125" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="38.5546875" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="23.44140625" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="21.5546875" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="22.0" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="24.5546875" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="27.0" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="19.109375" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="18.5546875" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" width="13.109375" collapsed="false"/>
-    <col min="14" max="1025" customWidth="true" width="10.33203125" collapsed="false"/>
+    <col min="1" max="1" width="15.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="38.5546875" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" customWidth="1"/>
+    <col min="7" max="7" width="21.5546875" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+    <col min="9" max="9" width="24.5546875" customWidth="1"/>
+    <col min="10" max="10" width="27" customWidth="1"/>
+    <col min="11" max="11" width="19.109375" customWidth="1"/>
+    <col min="12" max="12" width="18.5546875" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" customWidth="1"/>
+    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -3223,21 +3259,21 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="29" t="s">
+      <c r="D3" s="57"/>
+      <c r="E3" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
     </row>
     <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="30"/>
+      <c r="D4" s="60"/>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
@@ -3348,11 +3384,11 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
     </row>
     <row r="20" spans="3:5" ht="18">
       <c r="C20" s="24" t="s">
@@ -3390,19 +3426,19 @@
       <c r="C25" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="27"/>
+      <c r="E25" s="57"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="27"/>
+      <c r="E26" s="57"/>
     </row>
     <row r="27" spans="3:5" ht="51.75">
       <c r="C27" s="26" t="s">
@@ -3426,39 +3462,44 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:W17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:Z11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="17.25"/>
+  <cols>
+    <col min="6" max="6" width="25.21875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="32">
+    <row r="1" spans="1:26">
+      <c r="A1" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="33">
+      <c r="B1" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="34">
+      <c r="C1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="35">
+      <c r="D1" s="30" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="s" s="36">
+    <row r="4" spans="1:26">
+      <c r="E4" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="37">
+      <c r="F4" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="38">
+      <c r="G4" s="33" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:26">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -3468,13 +3509,13 @@
       <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" t="s" s="53">
+      <c r="D7" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="E7" t="s" s="54">
+      <c r="E7" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="F7" t="s" s="55">
+      <c r="F7" s="50" t="s">
         <v>55</v>
       </c>
       <c r="G7" t="s">
@@ -3528,546 +3569,298 @@
       <c r="W7" t="s">
         <v>72</v>
       </c>
+      <c r="X7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:26">
       <c r="E8" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H8" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I8" t="s">
         <v>58</v>
       </c>
       <c r="J8" t="s">
+        <v>79</v>
+      </c>
+      <c r="K8" t="s">
+        <v>80</v>
+      </c>
+      <c r="M8" t="s">
+        <v>81</v>
+      </c>
+      <c r="N8" t="s">
+        <v>81</v>
+      </c>
+      <c r="P8" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>82</v>
+      </c>
+      <c r="R8" t="s">
+        <v>83</v>
+      </c>
+      <c r="S8" t="s">
+        <v>78</v>
+      </c>
+      <c r="T8" t="s">
+        <v>84</v>
+      </c>
+      <c r="U8" t="s">
+        <v>82</v>
+      </c>
+      <c r="V8" t="s">
+        <v>78</v>
+      </c>
+      <c r="W8" t="s">
+        <v>82</v>
+      </c>
+      <c r="X8" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="E9" t="s">
         <v>76</v>
       </c>
-      <c r="K8" t="s">
-        <v>77</v>
-      </c>
-      <c r="M8" t="s">
+      <c r="F9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" t="s">
         <v>78</v>
       </c>
-      <c r="N8" t="s">
-        <v>78</v>
-      </c>
-      <c r="P8" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q8" t="s">
+      <c r="H9" t="s">
         <v>79</v>
-      </c>
-      <c r="S8" t="s">
-        <v>79</v>
-      </c>
-      <c r="T8" t="s">
-        <v>80</v>
-      </c>
-      <c r="U8" t="s">
-        <v>79</v>
-      </c>
-      <c r="V8" t="s">
-        <v>75</v>
-      </c>
-      <c r="W8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="E9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F9" t="s">
-        <v>81</v>
-      </c>
-      <c r="G9" t="s">
-        <v>75</v>
-      </c>
-      <c r="H9" t="s">
-        <v>76</v>
       </c>
       <c r="I9" t="s">
         <v>58</v>
       </c>
       <c r="J9" t="s">
+        <v>79</v>
+      </c>
+      <c r="K9" t="s">
+        <v>88</v>
+      </c>
+      <c r="M9" t="s">
+        <v>81</v>
+      </c>
+      <c r="N9" t="s">
+        <v>81</v>
+      </c>
+      <c r="P9" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>82</v>
+      </c>
+      <c r="S9" t="s">
+        <v>78</v>
+      </c>
+      <c r="T9" t="s">
+        <v>84</v>
+      </c>
+      <c r="U9" t="s">
+        <v>82</v>
+      </c>
+      <c r="V9" t="s">
+        <v>78</v>
+      </c>
+      <c r="W9" t="s">
+        <v>82</v>
+      </c>
+      <c r="X9" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="E10" t="s">
         <v>76</v>
       </c>
-      <c r="K9" t="s">
-        <v>77</v>
-      </c>
-      <c r="M9" t="s">
+      <c r="F10" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" t="s">
         <v>78</v>
       </c>
-      <c r="P9" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q9" t="s">
+      <c r="H10" t="s">
         <v>79</v>
-      </c>
-      <c r="S9" t="s">
-        <v>75</v>
-      </c>
-      <c r="T9" t="s">
-        <v>80</v>
-      </c>
-      <c r="U9" t="s">
-        <v>79</v>
-      </c>
-      <c r="V9" t="s">
-        <v>75</v>
-      </c>
-      <c r="W9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="E10" t="s">
-        <v>73</v>
-      </c>
-      <c r="F10" t="s">
-        <v>82</v>
-      </c>
-      <c r="G10" t="s">
-        <v>75</v>
-      </c>
-      <c r="H10" t="s">
-        <v>76</v>
       </c>
       <c r="I10" t="s">
         <v>58</v>
       </c>
       <c r="J10" t="s">
+        <v>79</v>
+      </c>
+      <c r="K10" t="s">
+        <v>80</v>
+      </c>
+      <c r="M10" t="s">
+        <v>81</v>
+      </c>
+      <c r="N10" t="s">
+        <v>81</v>
+      </c>
+      <c r="P10" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>82</v>
+      </c>
+      <c r="R10" t="s">
+        <v>83</v>
+      </c>
+      <c r="S10" t="s">
+        <v>78</v>
+      </c>
+      <c r="T10" t="s">
+        <v>84</v>
+      </c>
+      <c r="U10" t="s">
+        <v>82</v>
+      </c>
+      <c r="V10" t="s">
+        <v>78</v>
+      </c>
+      <c r="W10" t="s">
+        <v>82</v>
+      </c>
+      <c r="X10" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="E11" t="s">
         <v>76</v>
       </c>
-      <c r="K10" t="s">
-        <v>77</v>
-      </c>
-      <c r="M10" t="s">
+      <c r="F11" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" t="s">
         <v>78</v>
       </c>
-      <c r="N10" t="s">
+      <c r="H11" t="s">
+        <v>79</v>
+      </c>
+      <c r="I11" t="s">
+        <v>94</v>
+      </c>
+      <c r="J11" t="s">
+        <v>79</v>
+      </c>
+      <c r="K11" t="s">
+        <v>80</v>
+      </c>
+      <c r="M11" t="s">
+        <v>81</v>
+      </c>
+      <c r="N11" t="s">
+        <v>95</v>
+      </c>
+      <c r="P11" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>82</v>
+      </c>
+      <c r="S11" t="s">
         <v>78</v>
       </c>
-      <c r="P10" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>79</v>
-      </c>
-      <c r="S10" t="s">
-        <v>79</v>
-      </c>
-      <c r="T10" t="s">
-        <v>80</v>
-      </c>
-      <c r="U10" t="s">
-        <v>79</v>
-      </c>
-      <c r="V10" t="s">
-        <v>79</v>
-      </c>
-      <c r="W10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="E11" t="s">
-        <v>73</v>
-      </c>
-      <c r="F11" t="s">
-        <v>83</v>
-      </c>
-      <c r="G11" t="s">
-        <v>75</v>
-      </c>
-      <c r="H11" t="s">
-        <v>76</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="T11" t="s">
         <v>84</v>
       </c>
-      <c r="J11" t="s">
-        <v>76</v>
-      </c>
-      <c r="K11" t="s">
-        <v>77</v>
-      </c>
-      <c r="M11" t="s">
+      <c r="U11" t="s">
+        <v>82</v>
+      </c>
+      <c r="V11" t="s">
         <v>78</v>
       </c>
-      <c r="N11" t="s">
+      <c r="W11" t="s">
+        <v>78</v>
+      </c>
+      <c r="X11" t="s">
         <v>85</v>
       </c>
-      <c r="P11" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>79</v>
-      </c>
-      <c r="S11" t="s">
-        <v>75</v>
-      </c>
-      <c r="T11" t="s">
-        <v>80</v>
-      </c>
-      <c r="U11" t="s">
-        <v>79</v>
-      </c>
-      <c r="V11" t="s">
-        <v>75</v>
-      </c>
-      <c r="W11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="E12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="Y11" t="s">
         <v>86</v>
       </c>
-      <c r="G12" t="s">
-        <v>75</v>
-      </c>
-      <c r="H12" t="s">
-        <v>76</v>
-      </c>
-      <c r="I12" t="s">
-        <v>58</v>
-      </c>
-      <c r="J12" t="s">
-        <v>76</v>
-      </c>
-      <c r="K12" t="s">
-        <v>77</v>
-      </c>
-      <c r="M12" t="s">
-        <v>78</v>
-      </c>
-      <c r="N12" t="s">
-        <v>78</v>
-      </c>
-      <c r="P12" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>79</v>
-      </c>
-      <c r="S12" t="s">
-        <v>75</v>
-      </c>
-      <c r="T12" t="s">
-        <v>80</v>
-      </c>
-      <c r="U12" t="s">
-        <v>79</v>
-      </c>
-      <c r="V12" t="s">
-        <v>75</v>
-      </c>
-      <c r="W12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="E13" t="s">
-        <v>73</v>
-      </c>
-      <c r="F13" t="s">
-        <v>87</v>
-      </c>
-      <c r="G13" t="s">
-        <v>75</v>
-      </c>
-      <c r="H13" t="s">
-        <v>76</v>
-      </c>
-      <c r="I13" t="s">
-        <v>88</v>
-      </c>
-      <c r="J13" t="s">
-        <v>76</v>
-      </c>
-      <c r="K13" t="s">
-        <v>89</v>
-      </c>
-      <c r="M13" t="s">
+      <c r="Z11" t="s">
         <v>90</v>
-      </c>
-      <c r="N13" t="s">
-        <v>90</v>
-      </c>
-      <c r="P13" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>79</v>
-      </c>
-      <c r="S13" t="s">
-        <v>75</v>
-      </c>
-      <c r="T13" t="s">
-        <v>80</v>
-      </c>
-      <c r="U13" t="s">
-        <v>79</v>
-      </c>
-      <c r="V13" t="s">
-        <v>75</v>
-      </c>
-      <c r="W13" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="E14" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G14" t="s">
-        <v>75</v>
-      </c>
-      <c r="H14" t="s">
-        <v>76</v>
-      </c>
-      <c r="I14" t="s">
-        <v>92</v>
-      </c>
-      <c r="J14" t="s">
-        <v>76</v>
-      </c>
-      <c r="K14" t="s">
-        <v>77</v>
-      </c>
-      <c r="M14" t="s">
-        <v>90</v>
-      </c>
-      <c r="N14" t="s">
-        <v>90</v>
-      </c>
-      <c r="P14" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>79</v>
-      </c>
-      <c r="S14" t="s">
-        <v>79</v>
-      </c>
-      <c r="T14" t="s">
-        <v>93</v>
-      </c>
-      <c r="U14" t="s">
-        <v>79</v>
-      </c>
-      <c r="V14" t="s">
-        <v>75</v>
-      </c>
-      <c r="W14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="E15" t="s">
-        <v>73</v>
-      </c>
-      <c r="F15" t="s">
-        <v>94</v>
-      </c>
-      <c r="G15" t="s">
-        <v>75</v>
-      </c>
-      <c r="H15" t="s">
-        <v>76</v>
-      </c>
-      <c r="I15" t="s">
-        <v>58</v>
-      </c>
-      <c r="J15" t="s">
-        <v>76</v>
-      </c>
-      <c r="K15" t="s">
-        <v>77</v>
-      </c>
-      <c r="M15" t="s">
-        <v>90</v>
-      </c>
-      <c r="N15" t="s">
-        <v>90</v>
-      </c>
-      <c r="P15" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>79</v>
-      </c>
-      <c r="S15" t="s">
-        <v>79</v>
-      </c>
-      <c r="T15" t="s">
-        <v>80</v>
-      </c>
-      <c r="U15" t="s">
-        <v>79</v>
-      </c>
-      <c r="V15" t="s">
-        <v>75</v>
-      </c>
-      <c r="W15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="E16" t="s">
-        <v>73</v>
-      </c>
-      <c r="F16" t="s">
-        <v>95</v>
-      </c>
-      <c r="G16" t="s">
-        <v>75</v>
-      </c>
-      <c r="H16" t="s">
-        <v>76</v>
-      </c>
-      <c r="I16" t="s">
-        <v>58</v>
-      </c>
-      <c r="J16" t="s">
-        <v>76</v>
-      </c>
-      <c r="K16" t="s">
-        <v>77</v>
-      </c>
-      <c r="M16" t="s">
-        <v>90</v>
-      </c>
-      <c r="N16" t="s">
-        <v>90</v>
-      </c>
-      <c r="P16" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>79</v>
-      </c>
-      <c r="R16" t="s">
-        <v>96</v>
-      </c>
-      <c r="S16" t="s">
-        <v>79</v>
-      </c>
-      <c r="T16" t="s">
-        <v>80</v>
-      </c>
-      <c r="U16" t="s">
-        <v>75</v>
-      </c>
-      <c r="V16" t="s">
-        <v>75</v>
-      </c>
-      <c r="W16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="E17" t="s">
-        <v>73</v>
-      </c>
-      <c r="F17" t="s">
-        <v>97</v>
-      </c>
-      <c r="G17" t="s">
-        <v>75</v>
-      </c>
-      <c r="H17" t="s">
-        <v>76</v>
-      </c>
-      <c r="I17" t="s">
-        <v>58</v>
-      </c>
-      <c r="J17" t="s">
-        <v>76</v>
-      </c>
-      <c r="K17" t="s">
-        <v>77</v>
-      </c>
-      <c r="M17" t="s">
-        <v>90</v>
-      </c>
-      <c r="N17" t="s">
-        <v>90</v>
-      </c>
-      <c r="P17" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>79</v>
-      </c>
-      <c r="S17" t="s">
-        <v>75</v>
-      </c>
-      <c r="T17" t="s">
-        <v>80</v>
-      </c>
-      <c r="U17" t="s">
-        <v>75</v>
-      </c>
-      <c r="V17" t="s">
-        <v>79</v>
-      </c>
-      <c r="W17" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:X8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:Z8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="17.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="39">
+    <row r="1" spans="1:26">
+      <c r="A1" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="40">
+      <c r="B1" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="41">
+      <c r="C1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="42">
+      <c r="D1" s="37" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="s" s="43">
+    <row r="4" spans="1:26">
+      <c r="E4" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="44">
+      <c r="F4" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="45">
+      <c r="G4" s="40" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:26">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -4075,167 +3868,180 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="D7" t="s" s="56">
+      <c r="E7" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" t="s">
         <v>99</v>
       </c>
-      <c r="E7" t="s" s="57">
-        <v>54</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="G7" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="G7" t="s" s="58">
+      <c r="H7" t="s">
         <v>101</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>102</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>103</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>104</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>105</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>106</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>107</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>108</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>109</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>110</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>111</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>112</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>113</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>114</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>115</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>116</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>117</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="E8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="E8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
+        <v>78</v>
+      </c>
+      <c r="H8" t="s">
         <v>119</v>
       </c>
-      <c r="G8" t="s">
-        <v>75</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>120</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>121</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
+        <v>121</v>
+      </c>
+      <c r="L8" t="s">
+        <v>78</v>
+      </c>
+      <c r="M8" t="s">
+        <v>82</v>
+      </c>
+      <c r="N8" t="s">
         <v>122</v>
       </c>
-      <c r="K8" t="s">
-        <v>122</v>
-      </c>
-      <c r="L8" t="s">
-        <v>75</v>
-      </c>
-      <c r="M8" t="s">
-        <v>79</v>
-      </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>123</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>124</v>
       </c>
-      <c r="P8" t="s">
+      <c r="R8" t="s">
         <v>125</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>126</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>127</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
+        <v>127</v>
+      </c>
+      <c r="V8" t="s">
         <v>128</v>
       </c>
-      <c r="U8" t="s">
-        <v>128</v>
-      </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>129</v>
       </c>
-      <c r="W8" t="s">
-        <v>130</v>
+      <c r="Y8" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AD8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:AH8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="17.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="46">
+    <row r="1" spans="1:34">
+      <c r="A1" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="47">
+      <c r="B1" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="48">
+      <c r="C1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="49">
+      <c r="D1" s="44" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="s" s="50">
+    <row r="4" spans="1:34">
+      <c r="E4" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="51">
+      <c r="F4" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="52">
+      <c r="G4" s="47" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:34">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -4243,168 +4049,194 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D7" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="D7" t="s" s="59">
+      <c r="E7" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" t="s">
         <v>132</v>
       </c>
-      <c r="E7" t="s" s="60">
-        <v>54</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H7" s="56" t="s">
+        <v>100</v>
+      </c>
+      <c r="I7" t="s">
         <v>133</v>
       </c>
-      <c r="G7" t="s">
-        <v>100</v>
-      </c>
-      <c r="H7" t="s" s="61">
-        <v>101</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>134</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>135</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>136</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>137</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>138</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>139</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>140</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>141</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>142</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>143</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>144</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>145</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>146</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>147</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>148</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>149</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>150</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>151</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>152</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>153</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>154</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>155</v>
       </c>
+      <c r="AF7" t="s">
+        <v>156</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:34">
       <c r="E8" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="N8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="O8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="P8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Q8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="T8" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="U8" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="V8" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="W8" t="s">
+        <v>81</v>
+      </c>
+      <c r="X8" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>163</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD8" t="s">
         <v>78</v>
       </c>
-      <c r="X8" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>75</v>
+      <c r="AE8" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-oauth.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-oauth.xlsx
@@ -1,35 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IDEAworkspace\项目\hzero-resource\init-data\hzero-platform\hzero_platform\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\WorkDev\hzero-generator\src\main\resources\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FEB06EC-C3C5-40C6-841E-F58C53D8D9D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="14220" tabRatio="597"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
-    <sheet name="客户端" sheetId="2" r:id="rId2"/>
-    <sheet name="LDAP" sheetId="3" r:id="rId3"/>
-    <sheet name="安全策略" sheetId="4" r:id="rId4"/>
+    <sheet name="客户端" r:id="rId5" sheetId="2"/>
+    <sheet name="LDAP" r:id="rId6" sheetId="3"/>
+    <sheet name="安全策略" r:id="rId7" sheetId="4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
-    <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
-    <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
+    <definedName name="qwe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
+    <definedName name="wqewqe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="166">
   <si>
     <r>
       <rPr>
@@ -1998,7 +1997,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2021-02-02</t>
+    <t>2021-10-13</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2088,25 +2087,46 @@
     <t>default</t>
   </si>
   <si>
+    <t>password,authorization_code,refresh_token,implicit,client_credentials</t>
+  </si>
+  <si>
+    <t>86400</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>GMT+8</t>
+  </si>
+  <si>
+    <t>zh_CN</t>
+  </si>
+  <si>
+    <t>now</t>
+  </si>
+  <si>
+    <t>2124</t>
+  </si>
+  <si>
+    <t>hzero-front-dev</t>
+  </si>
+  <si>
+    <t>c2VjcmV0</t>
+  </si>
+  <si>
     <t>password,implicit,client_credentials,authorization_code,refresh_token</t>
   </si>
   <si>
-    <t>86400</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>GMT+8</t>
-  </si>
-  <si>
-    <t>zh_CN</t>
-  </si>
-  <si>
-    <t>now</t>
+    <t>360000</t>
+  </si>
+  <si>
+    <t>hzero-front-uat</t>
+  </si>
+  <si>
+    <t>542</t>
   </si>
   <si>
     <t>localhost</t>
@@ -2115,30 +2135,6 @@
     <t>password,client_credentials,authorization_code,refresh_token,implicit</t>
   </si>
   <si>
-    <t>en_US</t>
-  </si>
-  <si>
-    <t>-1</t>
-  </si>
-  <si>
-    <t>hzero-front-uat</t>
-  </si>
-  <si>
-    <t>124568523237695500</t>
-  </si>
-  <si>
-    <t>hzero-front-dev</t>
-  </si>
-  <si>
-    <t>c2VjcmV0</t>
-  </si>
-  <si>
-    <t>360000</t>
-  </si>
-  <si>
-    <t>124568523237695491</t>
-  </si>
-  <si>
     <t>LDAP</t>
   </si>
   <si>
@@ -2214,30 +2210,39 @@
     <t>******</t>
   </si>
   <si>
-    <t>ou=employee,dc=hand,dc=com</t>
+    <t>ou=employee,dc=hand-china,dc=com</t>
   </si>
   <si>
     <t>OpenLDAP</t>
   </si>
   <si>
-    <t>person</t>
+    <t>persion</t>
+  </si>
+  <si>
+    <t>((employeeNumber=30713))</t>
+  </si>
+  <si>
+    <t>500</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
-    <t>100</t>
-  </si>
-  <si>
     <t>uid</t>
   </si>
   <si>
-    <t>sn</t>
+    <t>employeeNumber</t>
+  </si>
+  <si>
+    <t>displayName</t>
   </si>
   <si>
     <t>mail</t>
   </si>
   <si>
+    <t>mobile</t>
+  </si>
+  <si>
     <t>安全策略</t>
   </si>
   <si>
@@ -2334,16 +2339,17 @@
     <t>5</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>1470</t>
+    <t>1407</t>
+  </si>
+  <si>
+    <t>7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="48">
     <font>
       <sz val="12"/>
@@ -2463,184 +2469,154 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="42"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="42"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="42"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2833,36 +2809,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2878,10 +2824,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
@@ -3221,36 +3197,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.109375" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="38.5546875" customWidth="1"/>
-    <col min="6" max="6" width="23.44140625" customWidth="1"/>
-    <col min="7" max="7" width="21.5546875" customWidth="1"/>
-    <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5546875" customWidth="1"/>
-    <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.109375" customWidth="1"/>
-    <col min="12" max="12" width="18.5546875" customWidth="1"/>
-    <col min="13" max="13" width="13.109375" customWidth="1"/>
-    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="15.5546875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="2" width="10.33203125" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="28.109375" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="3" width="35.33203125" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="38.5546875" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="23.44140625" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="21.5546875" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="22.0" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="24.5546875" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="27.0" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="19.109375" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="18.5546875" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="13.109375" collapsed="false"/>
+    <col min="14" max="1025" customWidth="true" width="10.33203125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -3259,21 +3235,21 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="59" t="s">
+      <c r="D3" s="27"/>
+      <c r="E3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
     </row>
     <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="60"/>
+      <c r="D4" s="30"/>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
@@ -3384,11 +3360,11 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="61" t="s">
+      <c r="C19" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
     </row>
     <row r="20" spans="3:5" ht="18">
       <c r="C20" s="24" t="s">
@@ -3426,19 +3402,19 @@
       <c r="C25" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="57" t="s">
+      <c r="D25" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="57"/>
+      <c r="E25" s="27"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="57" t="s">
+      <c r="D26" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="57"/>
+      <c r="E26" s="27"/>
     </row>
     <row r="27" spans="3:5" ht="51.75">
       <c r="C27" s="26" t="s">
@@ -3462,44 +3438,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:Z11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
-  <cols>
-    <col min="6" max="6" width="25.21875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:26">
-      <c r="A1" s="27" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="32">
         <v>44</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" t="s" s="33">
         <v>45</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" t="s" s="34">
         <v>9</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" t="s" s="35">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
-      <c r="E4" s="31" t="s">
+    <row r="4">
+      <c r="E4" t="s" s="36">
         <v>47</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" t="s" s="37">
         <v>48</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" t="s" s="38">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -3509,13 +3480,13 @@
       <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="D7" t="s" s="53">
         <v>53</v>
       </c>
-      <c r="E7" s="49" t="s">
+      <c r="E7" t="s" s="54">
         <v>54</v>
       </c>
-      <c r="F7" s="50" t="s">
+      <c r="F7" t="s" s="55">
         <v>55</v>
       </c>
       <c r="G7" t="s">
@@ -3579,7 +3550,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8">
       <c r="E8" t="s">
         <v>76</v>
       </c>
@@ -3629,7 +3600,7 @@
         <v>78</v>
       </c>
       <c r="W8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="X8" t="s">
         <v>85</v>
@@ -3638,15 +3609,15 @@
         <v>86</v>
       </c>
       <c r="Z8" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9">
       <c r="E9" t="s">
         <v>76</v>
       </c>
       <c r="F9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G9" t="s">
         <v>78</v>
@@ -3655,19 +3626,22 @@
         <v>79</v>
       </c>
       <c r="I9" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="J9" t="s">
         <v>79</v>
       </c>
       <c r="K9" t="s">
-        <v>88</v>
+        <v>90</v>
+      </c>
+      <c r="L9" t="s">
+        <v>83</v>
       </c>
       <c r="M9" t="s">
         <v>81</v>
       </c>
       <c r="N9" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="P9" t="s">
         <v>79</v>
@@ -3691,21 +3665,21 @@
         <v>82</v>
       </c>
       <c r="X9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="Y9" t="s">
         <v>86</v>
       </c>
       <c r="Z9" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10">
       <c r="E10" t="s">
         <v>76</v>
       </c>
       <c r="F10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G10" t="s">
         <v>78</v>
@@ -3720,7 +3694,7 @@
         <v>79</v>
       </c>
       <c r="K10" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="M10" t="s">
         <v>81</v>
@@ -3738,7 +3712,7 @@
         <v>83</v>
       </c>
       <c r="S10" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="T10" t="s">
         <v>84</v>
@@ -3759,15 +3733,15 @@
         <v>86</v>
       </c>
       <c r="Z10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11">
       <c r="E11" t="s">
         <v>76</v>
       </c>
       <c r="F11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G11" t="s">
         <v>78</v>
@@ -3776,19 +3750,19 @@
         <v>79</v>
       </c>
       <c r="I11" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="J11" t="s">
         <v>79</v>
       </c>
       <c r="K11" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="M11" t="s">
         <v>81</v>
       </c>
       <c r="N11" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="P11" t="s">
         <v>79</v>
@@ -3796,6 +3770,9 @@
       <c r="Q11" t="s">
         <v>82</v>
       </c>
+      <c r="R11" t="s">
+        <v>83</v>
+      </c>
       <c r="S11" t="s">
         <v>78</v>
       </c>
@@ -3818,49 +3795,48 @@
         <v>86</v>
       </c>
       <c r="Z11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:Z8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:26">
-      <c r="A1" s="34" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="39">
         <v>44</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" t="s" s="40">
         <v>45</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" t="s" s="41">
         <v>9</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" t="s" s="42">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
-      <c r="E4" s="38" t="s">
+    <row r="4">
+      <c r="E4" t="s" s="43">
         <v>47</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" t="s" s="44">
         <v>48</v>
       </c>
-      <c r="G4" s="40" t="s">
+      <c r="G4" t="s" s="45">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -3868,70 +3844,70 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" t="s" s="56">
         <v>97</v>
       </c>
-      <c r="D7" s="51" t="s">
+      <c r="E7" t="s" s="57">
+        <v>54</v>
+      </c>
+      <c r="F7" t="s">
         <v>98</v>
       </c>
-      <c r="E7" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s" s="58">
         <v>99</v>
       </c>
-      <c r="G7" s="53" t="s">
+      <c r="H7" t="s">
         <v>100</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>101</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>102</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>103</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>104</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>105</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>106</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>107</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>108</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>109</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>110</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>111</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>112</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>113</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>114</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>115</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>116</v>
-      </c>
-      <c r="X7" t="s">
-        <v>117</v>
       </c>
       <c r="Y7" t="s">
         <v>74</v>
@@ -3940,27 +3916,27 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8">
       <c r="E8" t="s">
         <v>76</v>
       </c>
       <c r="F8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G8" t="s">
         <v>78</v>
       </c>
       <c r="H8" t="s">
+        <v>118</v>
+      </c>
+      <c r="I8" t="s">
         <v>119</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>120</v>
       </c>
-      <c r="J8" t="s">
-        <v>121</v>
-      </c>
       <c r="K8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L8" t="s">
         <v>78</v>
@@ -3969,12 +3945,15 @@
         <v>82</v>
       </c>
       <c r="N8" t="s">
+        <v>121</v>
+      </c>
+      <c r="O8" t="s">
         <v>122</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>123</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>124</v>
       </c>
       <c r="R8" t="s">
@@ -3987,61 +3966,63 @@
         <v>127</v>
       </c>
       <c r="U8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="V8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="W8" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="X8" t="s">
+        <v>131</v>
       </c>
       <c r="Y8" t="s">
         <v>86</v>
       </c>
       <c r="Z8" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:AH8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:34">
-      <c r="A1" s="41" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="46">
         <v>44</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" t="s" s="47">
         <v>45</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" t="s" s="48">
         <v>9</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" t="s" s="49">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
-      <c r="E4" s="45" t="s">
+    <row r="4">
+      <c r="E4" t="s" s="50">
         <v>47</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="F4" t="s" s="51">
         <v>48</v>
       </c>
-      <c r="G4" s="47" t="s">
+      <c r="G4" t="s" s="52">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -4049,94 +4030,94 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D7" s="54" t="s">
-        <v>131</v>
-      </c>
-      <c r="E7" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" t="s" s="59">
+        <v>133</v>
+      </c>
+      <c r="E7" t="s" s="60">
         <v>54</v>
       </c>
       <c r="F7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H7" t="s" s="61">
         <v>99</v>
       </c>
-      <c r="H7" s="56" t="s">
-        <v>100</v>
-      </c>
       <c r="I7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="N7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="R7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="S7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="T7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="U7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="V7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="W7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="X7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Y7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Z7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AA7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AB7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AC7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AD7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AE7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AF7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AG7" t="s">
         <v>74</v>
@@ -4145,30 +4126,30 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8">
       <c r="E8" t="s">
         <v>76</v>
       </c>
       <c r="F8" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H8" t="s">
         <v>78</v>
       </c>
       <c r="I8" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="J8" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K8" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L8" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M8" t="s">
         <v>78</v>
@@ -4201,10 +4182,10 @@
         <v>81</v>
       </c>
       <c r="X8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="Y8" t="s">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="Z8" t="s">
         <v>82</v>
@@ -4213,16 +4194,16 @@
         <v>82</v>
       </c>
       <c r="AB8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC8" t="s">
-        <v>126</v>
+        <v>165</v>
       </c>
       <c r="AD8" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="AE8" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="AF8" t="s">
         <v>78</v>
@@ -4231,12 +4212,10 @@
         <v>86</v>
       </c>
       <c r="AH8" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>